--- a/vegetation/data/14Oct2018_revised.xlsx
+++ b/vegetation/data/14Oct2018_revised.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rwicks\Desktop\TempEPASaltmarsh\Labeled Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umass-my.sharepoint.com/personal/ekmiller_umass_edu/Documents/salt_marsh_data/Testing repo/salt_marsh_work/vegetation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{CF212FA9-98B6-4236-852B-D15C1A2423FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:9_{CF212FA9-98B6-4236-852B-D15C1A2423FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80FA100F-7537-EB47-8BDC-39BDC635B429}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{096FAB9B-7009-4B5E-B76F-7AD90AAB49DD}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16440" xr2:uid="{096FAB9B-7009-4B5E-B76F-7AD90AAB49DD}"/>
   </bookViews>
   <sheets>
     <sheet name="oldtownhill14oct2018_revised_li" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -991,12 +1004,12 @@
   <dimension ref="A1:L227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -1034,7 +1047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>14</v>
       </c>
@@ -1054,11 +1067,11 @@
         <v>6</v>
       </c>
       <c r="G2" t="str">
-        <f>LEFT(F2,2)</f>
+        <f t="shared" ref="G2:G33" si="0">LEFT(F2,2)</f>
         <v>01</v>
       </c>
       <c r="H2" t="str">
-        <f>RIGHT(F2,LEN(F2)-2)</f>
+        <f t="shared" ref="H2:H33" si="1">RIGHT(F2,LEN(F2)-2)</f>
         <v>ag</v>
       </c>
       <c r="I2" t="s">
@@ -1074,7 +1087,7 @@
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>14</v>
       </c>
@@ -1094,11 +1107,11 @@
         <v>6</v>
       </c>
       <c r="G3" t="str">
-        <f>LEFT(F3,2)</f>
+        <f t="shared" si="0"/>
         <v>01</v>
       </c>
       <c r="H3" t="str">
-        <f>RIGHT(F3,LEN(F3)-2)</f>
+        <f t="shared" si="1"/>
         <v>ag</v>
       </c>
       <c r="I3" t="s">
@@ -1114,7 +1127,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>14</v>
       </c>
@@ -1134,11 +1147,11 @@
         <v>8</v>
       </c>
       <c r="G4" t="str">
-        <f>LEFT(F4,2)</f>
+        <f t="shared" si="0"/>
         <v>01</v>
       </c>
       <c r="H4" t="str">
-        <f>RIGHT(F4,LEN(F4)-2)</f>
+        <f t="shared" si="1"/>
         <v>a</v>
       </c>
       <c r="I4" t="s">
@@ -1154,7 +1167,7 @@
         <v>1.026</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>14</v>
       </c>
@@ -1174,11 +1187,11 @@
         <v>10</v>
       </c>
       <c r="G5" t="str">
-        <f>LEFT(F5,2)</f>
+        <f t="shared" si="0"/>
         <v>06</v>
       </c>
       <c r="H5" t="str">
-        <f>RIGHT(F5,LEN(F5)-2)</f>
+        <f t="shared" si="1"/>
         <v>a</v>
       </c>
       <c r="I5" t="s">
@@ -1194,7 +1207,7 @@
         <v>1.397</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>14</v>
       </c>
@@ -1214,11 +1227,11 @@
         <v>10</v>
       </c>
       <c r="G6" t="str">
-        <f>LEFT(F6,2)</f>
+        <f t="shared" si="0"/>
         <v>06</v>
       </c>
       <c r="H6" t="str">
-        <f>RIGHT(F6,LEN(F6)-2)</f>
+        <f t="shared" si="1"/>
         <v>a</v>
       </c>
       <c r="I6" t="s">
@@ -1234,7 +1247,7 @@
         <v>1.3620000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>14</v>
       </c>
@@ -1254,11 +1267,11 @@
         <v>11</v>
       </c>
       <c r="G7" t="str">
-        <f>LEFT(F7,2)</f>
+        <f t="shared" si="0"/>
         <v>02</v>
       </c>
       <c r="H7" t="str">
-        <f>RIGHT(F7,LEN(F7)-2)</f>
+        <f t="shared" si="1"/>
         <v>a</v>
       </c>
       <c r="I7" t="s">
@@ -1274,7 +1287,7 @@
         <v>1.3180000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>14</v>
       </c>
@@ -1294,11 +1307,11 @@
         <v>11</v>
       </c>
       <c r="G8" t="str">
-        <f>LEFT(F8,2)</f>
+        <f t="shared" si="0"/>
         <v>02</v>
       </c>
       <c r="H8" t="str">
-        <f>RIGHT(F8,LEN(F8)-2)</f>
+        <f t="shared" si="1"/>
         <v>a</v>
       </c>
       <c r="I8" t="s">
@@ -1314,7 +1327,7 @@
         <v>1.3029999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>14</v>
       </c>
@@ -1334,11 +1347,11 @@
         <v>8</v>
       </c>
       <c r="G9" t="str">
-        <f>LEFT(F9,2)</f>
+        <f t="shared" si="0"/>
         <v>01</v>
       </c>
       <c r="H9" t="str">
-        <f>RIGHT(F9,LEN(F9)-2)</f>
+        <f t="shared" si="1"/>
         <v>a</v>
       </c>
       <c r="I9" t="s">
@@ -1354,7 +1367,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>14</v>
       </c>
@@ -1374,11 +1387,11 @@
         <v>12</v>
       </c>
       <c r="G10" t="str">
-        <f>LEFT(F10,2)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="H10" t="str">
-        <f>RIGHT(F10,LEN(F10)-2)</f>
+        <f t="shared" si="1"/>
         <v>bg</v>
       </c>
       <c r="I10" t="s">
@@ -1394,7 +1407,7 @@
         <v>1.081</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>14</v>
       </c>
@@ -1414,11 +1427,11 @@
         <v>13</v>
       </c>
       <c r="G11" t="str">
-        <f>LEFT(F11,2)</f>
+        <f t="shared" si="0"/>
         <v>01</v>
       </c>
       <c r="H11" t="str">
-        <f>RIGHT(F11,LEN(F11)-2)</f>
+        <f t="shared" si="1"/>
         <v>bg</v>
       </c>
       <c r="I11" t="s">
@@ -1434,7 +1447,7 @@
         <v>0.72099999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>14</v>
       </c>
@@ -1454,11 +1467,11 @@
         <v>13</v>
       </c>
       <c r="G12" t="str">
-        <f>LEFT(F12,2)</f>
+        <f t="shared" si="0"/>
         <v>01</v>
       </c>
       <c r="H12" t="str">
-        <f>RIGHT(F12,LEN(F12)-2)</f>
+        <f t="shared" si="1"/>
         <v>bg</v>
       </c>
       <c r="I12" t="s">
@@ -1474,7 +1487,7 @@
         <v>0.64500000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>14</v>
       </c>
@@ -1494,11 +1507,11 @@
         <v>14</v>
       </c>
       <c r="G13" t="str">
-        <f>LEFT(F13,2)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="H13" t="str">
-        <f>RIGHT(F13,LEN(F13)-2)</f>
+        <f t="shared" si="1"/>
         <v>r</v>
       </c>
       <c r="I13" t="s">
@@ -1514,7 +1527,7 @@
         <v>0.39100000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>14</v>
       </c>
@@ -1534,11 +1547,11 @@
         <v>14</v>
       </c>
       <c r="G14" t="str">
-        <f>LEFT(F14,2)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="H14" t="str">
-        <f>RIGHT(F14,LEN(F14)-2)</f>
+        <f t="shared" si="1"/>
         <v>r</v>
       </c>
       <c r="I14" t="s">
@@ -1554,7 +1567,7 @@
         <v>0.40799999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1574,11 +1587,11 @@
         <v>15</v>
       </c>
       <c r="G15" t="str">
-        <f>LEFT(F15,2)</f>
+        <f t="shared" si="0"/>
         <v>01</v>
       </c>
       <c r="H15" t="str">
-        <f>RIGHT(F15,LEN(F15)-2)</f>
+        <f t="shared" si="1"/>
         <v>g</v>
       </c>
       <c r="I15" t="s">
@@ -1594,7 +1607,7 @@
         <v>-0.11799999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1614,11 +1627,11 @@
         <v>15</v>
       </c>
       <c r="G16" t="str">
-        <f>LEFT(F16,2)</f>
+        <f t="shared" si="0"/>
         <v>01</v>
       </c>
       <c r="H16" t="str">
-        <f>RIGHT(F16,LEN(F16)-2)</f>
+        <f t="shared" si="1"/>
         <v>g</v>
       </c>
       <c r="I16" t="s">
@@ -1634,7 +1647,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1654,11 +1667,11 @@
         <v>15</v>
       </c>
       <c r="G17" t="str">
-        <f>LEFT(F17,2)</f>
+        <f t="shared" si="0"/>
         <v>01</v>
       </c>
       <c r="H17" t="str">
-        <f>RIGHT(F17,LEN(F17)-2)</f>
+        <f t="shared" si="1"/>
         <v>g</v>
       </c>
       <c r="I17" t="s">
@@ -1674,7 +1687,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>14</v>
       </c>
@@ -1694,11 +1707,11 @@
         <v>15</v>
       </c>
       <c r="G18" t="str">
-        <f>LEFT(F18,2)</f>
+        <f t="shared" si="0"/>
         <v>01</v>
       </c>
       <c r="H18" t="str">
-        <f>RIGHT(F18,LEN(F18)-2)</f>
+        <f t="shared" si="1"/>
         <v>g</v>
       </c>
       <c r="I18" t="s">
@@ -1714,7 +1727,7 @@
         <v>0.73199999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>14</v>
       </c>
@@ -1734,11 +1747,11 @@
         <v>15</v>
       </c>
       <c r="G19" t="str">
-        <f>LEFT(F19,2)</f>
+        <f t="shared" si="0"/>
         <v>01</v>
       </c>
       <c r="H19" t="str">
-        <f>RIGHT(F19,LEN(F19)-2)</f>
+        <f t="shared" si="1"/>
         <v>g</v>
       </c>
       <c r="I19" t="s">
@@ -1754,7 +1767,7 @@
         <v>0.92900000000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>14</v>
       </c>
@@ -1774,11 +1787,11 @@
         <v>8</v>
       </c>
       <c r="G20" t="str">
-        <f>LEFT(F20,2)</f>
+        <f t="shared" si="0"/>
         <v>01</v>
       </c>
       <c r="H20" t="str">
-        <f>RIGHT(F20,LEN(F20)-2)</f>
+        <f t="shared" si="1"/>
         <v>a</v>
       </c>
       <c r="I20" t="s">
@@ -1794,7 +1807,7 @@
         <v>1.1559999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>14</v>
       </c>
@@ -1814,11 +1827,11 @@
         <v>11</v>
       </c>
       <c r="G21" t="str">
-        <f>LEFT(F21,2)</f>
+        <f t="shared" si="0"/>
         <v>02</v>
       </c>
       <c r="H21" t="str">
-        <f>RIGHT(F21,LEN(F21)-2)</f>
+        <f t="shared" si="1"/>
         <v>a</v>
       </c>
       <c r="I21" t="s">
@@ -1834,7 +1847,7 @@
         <v>1.212</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>14</v>
       </c>
@@ -1854,11 +1867,11 @@
         <v>8</v>
       </c>
       <c r="G22" t="str">
-        <f>LEFT(F22,2)</f>
+        <f t="shared" si="0"/>
         <v>01</v>
       </c>
       <c r="H22" t="str">
-        <f>RIGHT(F22,LEN(F22)-2)</f>
+        <f t="shared" si="1"/>
         <v>a</v>
       </c>
       <c r="I22" t="s">
@@ -1874,7 +1887,7 @@
         <v>1.2210000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>14</v>
       </c>
@@ -1894,11 +1907,11 @@
         <v>11</v>
       </c>
       <c r="G23" t="str">
-        <f>LEFT(F23,2)</f>
+        <f t="shared" si="0"/>
         <v>02</v>
       </c>
       <c r="H23" t="str">
-        <f>RIGHT(F23,LEN(F23)-2)</f>
+        <f t="shared" si="1"/>
         <v>a</v>
       </c>
       <c r="I23" t="s">
@@ -1914,7 +1927,7 @@
         <v>1.2270000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>14</v>
       </c>
@@ -1934,11 +1947,11 @@
         <v>11</v>
       </c>
       <c r="G24" t="str">
-        <f>LEFT(F24,2)</f>
+        <f t="shared" si="0"/>
         <v>02</v>
       </c>
       <c r="H24" t="str">
-        <f>RIGHT(F24,LEN(F24)-2)</f>
+        <f t="shared" si="1"/>
         <v>a</v>
       </c>
       <c r="I24" t="s">
@@ -1954,7 +1967,7 @@
         <v>1.244</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>14</v>
       </c>
@@ -1974,11 +1987,11 @@
         <v>10</v>
       </c>
       <c r="G25" t="str">
-        <f>LEFT(F25,2)</f>
+        <f t="shared" si="0"/>
         <v>06</v>
       </c>
       <c r="H25" t="str">
-        <f>RIGHT(F25,LEN(F25)-2)</f>
+        <f t="shared" si="1"/>
         <v>a</v>
       </c>
       <c r="I25" t="s">
@@ -1994,7 +2007,7 @@
         <v>1.387</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>14</v>
       </c>
@@ -2014,11 +2027,11 @@
         <v>10</v>
       </c>
       <c r="G26" t="str">
-        <f>LEFT(F26,2)</f>
+        <f t="shared" si="0"/>
         <v>06</v>
       </c>
       <c r="H26" t="str">
-        <f>RIGHT(F26,LEN(F26)-2)</f>
+        <f t="shared" si="1"/>
         <v>a</v>
       </c>
       <c r="I26" t="s">
@@ -2034,7 +2047,7 @@
         <v>1.3959999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>14</v>
       </c>
@@ -2054,11 +2067,11 @@
         <v>16</v>
       </c>
       <c r="G27" t="str">
-        <f>LEFT(F27,2)</f>
+        <f t="shared" si="0"/>
         <v>05</v>
       </c>
       <c r="H27" t="str">
-        <f>RIGHT(F27,LEN(F27)-2)</f>
+        <f t="shared" si="1"/>
         <v>a</v>
       </c>
       <c r="I27" t="s">
@@ -2074,7 +2087,7 @@
         <v>1.3979999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>14</v>
       </c>
@@ -2094,11 +2107,11 @@
         <v>16</v>
       </c>
       <c r="G28" t="str">
-        <f>LEFT(F28,2)</f>
+        <f t="shared" si="0"/>
         <v>05</v>
       </c>
       <c r="H28" t="str">
-        <f>RIGHT(F28,LEN(F28)-2)</f>
+        <f t="shared" si="1"/>
         <v>a</v>
       </c>
       <c r="I28" t="s">
@@ -2114,7 +2127,7 @@
         <v>1.4119999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>14</v>
       </c>
@@ -2134,11 +2147,11 @@
         <v>17</v>
       </c>
       <c r="G29" t="str">
-        <f>LEFT(F29,2)</f>
+        <f t="shared" si="0"/>
         <v>03</v>
       </c>
       <c r="H29" t="str">
-        <f>RIGHT(F29,LEN(F29)-2)</f>
+        <f t="shared" si="1"/>
         <v>a</v>
       </c>
       <c r="I29" t="s">
@@ -2154,7 +2167,7 @@
         <v>1.282</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>14</v>
       </c>
@@ -2174,11 +2187,11 @@
         <v>10</v>
       </c>
       <c r="G30" t="str">
-        <f>LEFT(F30,2)</f>
+        <f t="shared" si="0"/>
         <v>06</v>
       </c>
       <c r="H30" t="str">
-        <f>RIGHT(F30,LEN(F30)-2)</f>
+        <f t="shared" si="1"/>
         <v>a</v>
       </c>
       <c r="I30" t="s">
@@ -2194,7 +2207,7 @@
         <v>1.3939999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>14</v>
       </c>
@@ -2214,11 +2227,11 @@
         <v>10</v>
       </c>
       <c r="G31" t="str">
-        <f>LEFT(F31,2)</f>
+        <f t="shared" si="0"/>
         <v>06</v>
       </c>
       <c r="H31" t="str">
-        <f>RIGHT(F31,LEN(F31)-2)</f>
+        <f t="shared" si="1"/>
         <v>a</v>
       </c>
       <c r="I31" t="s">
@@ -2234,7 +2247,7 @@
         <v>1.421</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>14</v>
       </c>
@@ -2254,11 +2267,11 @@
         <v>10</v>
       </c>
       <c r="G32" t="str">
-        <f>LEFT(F32,2)</f>
+        <f t="shared" si="0"/>
         <v>06</v>
       </c>
       <c r="H32" t="str">
-        <f>RIGHT(F32,LEN(F32)-2)</f>
+        <f t="shared" si="1"/>
         <v>a</v>
       </c>
       <c r="I32" t="s">
@@ -2274,7 +2287,7 @@
         <v>1.3839999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>14</v>
       </c>
@@ -2294,11 +2307,11 @@
         <v>16</v>
       </c>
       <c r="G33" t="str">
-        <f>LEFT(F33,2)</f>
+        <f t="shared" si="0"/>
         <v>05</v>
       </c>
       <c r="H33" t="str">
-        <f>RIGHT(F33,LEN(F33)-2)</f>
+        <f t="shared" si="1"/>
         <v>a</v>
       </c>
       <c r="I33" t="s">
@@ -2314,7 +2327,7 @@
         <v>1.4019999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>14</v>
       </c>
@@ -2334,11 +2347,11 @@
         <v>17</v>
       </c>
       <c r="G34" t="str">
-        <f>LEFT(F34,2)</f>
+        <f t="shared" ref="G34:G65" si="2">LEFT(F34,2)</f>
         <v>03</v>
       </c>
       <c r="H34" t="str">
-        <f>RIGHT(F34,LEN(F34)-2)</f>
+        <f t="shared" ref="H34:H65" si="3">RIGHT(F34,LEN(F34)-2)</f>
         <v>a</v>
       </c>
       <c r="I34" t="s">
@@ -2354,7 +2367,7 @@
         <v>1.333</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>14</v>
       </c>
@@ -2374,11 +2387,11 @@
         <v>17</v>
       </c>
       <c r="G35" t="str">
-        <f>LEFT(F35,2)</f>
+        <f t="shared" si="2"/>
         <v>03</v>
       </c>
       <c r="H35" t="str">
-        <f>RIGHT(F35,LEN(F35)-2)</f>
+        <f t="shared" si="3"/>
         <v>a</v>
       </c>
       <c r="I35" t="s">
@@ -2394,7 +2407,7 @@
         <v>1.3240000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>14</v>
       </c>
@@ -2414,11 +2427,11 @@
         <v>18</v>
       </c>
       <c r="G36" t="str">
-        <f>LEFT(F36,2)</f>
+        <f t="shared" si="2"/>
         <v>04</v>
       </c>
       <c r="H36" t="str">
-        <f>RIGHT(F36,LEN(F36)-2)</f>
+        <f t="shared" si="3"/>
         <v>a</v>
       </c>
       <c r="I36" t="s">
@@ -2434,7 +2447,7 @@
         <v>1.379</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>14</v>
       </c>
@@ -2454,11 +2467,11 @@
         <v>18</v>
       </c>
       <c r="G37" t="str">
-        <f>LEFT(F37,2)</f>
+        <f t="shared" si="2"/>
         <v>04</v>
       </c>
       <c r="H37" t="str">
-        <f>RIGHT(F37,LEN(F37)-2)</f>
+        <f t="shared" si="3"/>
         <v>a</v>
       </c>
       <c r="I37" t="s">
@@ -2474,7 +2487,7 @@
         <v>1.373</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>14</v>
       </c>
@@ -2494,11 +2507,11 @@
         <v>17</v>
       </c>
       <c r="G38" t="str">
-        <f>LEFT(F38,2)</f>
+        <f t="shared" si="2"/>
         <v>03</v>
       </c>
       <c r="H38" t="str">
-        <f>RIGHT(F38,LEN(F38)-2)</f>
+        <f t="shared" si="3"/>
         <v>a</v>
       </c>
       <c r="I38" t="s">
@@ -2514,7 +2527,7 @@
         <v>1.3120000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>14</v>
       </c>
@@ -2534,11 +2547,11 @@
         <v>18</v>
       </c>
       <c r="G39" t="str">
-        <f>LEFT(F39,2)</f>
+        <f t="shared" si="2"/>
         <v>04</v>
       </c>
       <c r="H39" t="str">
-        <f>RIGHT(F39,LEN(F39)-2)</f>
+        <f t="shared" si="3"/>
         <v>a</v>
       </c>
       <c r="I39" t="s">
@@ -2554,7 +2567,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>14</v>
       </c>
@@ -2574,11 +2587,11 @@
         <v>18</v>
       </c>
       <c r="G40" t="str">
-        <f>LEFT(F40,2)</f>
+        <f t="shared" si="2"/>
         <v>04</v>
       </c>
       <c r="H40" t="str">
-        <f>RIGHT(F40,LEN(F40)-2)</f>
+        <f t="shared" si="3"/>
         <v>a</v>
       </c>
       <c r="I40" t="s">
@@ -2594,7 +2607,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>14</v>
       </c>
@@ -2614,11 +2627,11 @@
         <v>10</v>
       </c>
       <c r="G41" t="str">
-        <f>LEFT(F41,2)</f>
+        <f t="shared" si="2"/>
         <v>06</v>
       </c>
       <c r="H41" t="str">
-        <f>RIGHT(F41,LEN(F41)-2)</f>
+        <f t="shared" si="3"/>
         <v>a</v>
       </c>
       <c r="I41" t="s">
@@ -2634,7 +2647,7 @@
         <v>1.4019999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>14</v>
       </c>
@@ -2654,11 +2667,11 @@
         <v>10</v>
       </c>
       <c r="G42" t="str">
-        <f>LEFT(F42,2)</f>
+        <f t="shared" si="2"/>
         <v>06</v>
       </c>
       <c r="H42" t="str">
-        <f>RIGHT(F42,LEN(F42)-2)</f>
+        <f t="shared" si="3"/>
         <v>a</v>
       </c>
       <c r="I42" t="s">
@@ -2674,7 +2687,7 @@
         <v>1.3959999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>14</v>
       </c>
@@ -2694,11 +2707,11 @@
         <v>8</v>
       </c>
       <c r="G43" t="str">
-        <f>LEFT(F43,2)</f>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="H43" t="str">
-        <f>RIGHT(F43,LEN(F43)-2)</f>
+        <f t="shared" si="3"/>
         <v>a</v>
       </c>
       <c r="I43" t="s">
@@ -2714,7 +2727,7 @@
         <v>1.1950000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>14</v>
       </c>
@@ -2734,11 +2747,11 @@
         <v>8</v>
       </c>
       <c r="G44" t="str">
-        <f>LEFT(F44,2)</f>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="H44" t="str">
-        <f>RIGHT(F44,LEN(F44)-2)</f>
+        <f t="shared" si="3"/>
         <v>a</v>
       </c>
       <c r="I44" t="s">
@@ -2754,7 +2767,7 @@
         <v>1.171</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>14</v>
       </c>
@@ -2774,11 +2787,11 @@
         <v>6</v>
       </c>
       <c r="G45" t="str">
-        <f>LEFT(F45,2)</f>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="H45" t="str">
-        <f>RIGHT(F45,LEN(F45)-2)</f>
+        <f t="shared" si="3"/>
         <v>ag</v>
       </c>
       <c r="I45" t="s">
@@ -2794,7 +2807,7 @@
         <v>1.0429999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>14</v>
       </c>
@@ -2814,11 +2827,11 @@
         <v>6</v>
       </c>
       <c r="G46" t="str">
-        <f>LEFT(F46,2)</f>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="H46" t="str">
-        <f>RIGHT(F46,LEN(F46)-2)</f>
+        <f t="shared" si="3"/>
         <v>ag</v>
       </c>
       <c r="I46" t="s">
@@ -2834,7 +2847,7 @@
         <v>0.754</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>14</v>
       </c>
@@ -2854,11 +2867,11 @@
         <v>6</v>
       </c>
       <c r="G47" t="str">
-        <f>LEFT(F47,2)</f>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="H47" t="str">
-        <f>RIGHT(F47,LEN(F47)-2)</f>
+        <f t="shared" si="3"/>
         <v>ag</v>
       </c>
       <c r="I47" t="s">
@@ -2874,7 +2887,7 @@
         <v>0.86899999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>14</v>
       </c>
@@ -2894,11 +2907,11 @@
         <v>6</v>
       </c>
       <c r="G48" t="str">
-        <f>LEFT(F48,2)</f>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="H48" t="str">
-        <f>RIGHT(F48,LEN(F48)-2)</f>
+        <f t="shared" si="3"/>
         <v>ag</v>
       </c>
       <c r="I48" t="s">
@@ -2914,7 +2927,7 @@
         <v>0.437</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>14</v>
       </c>
@@ -2934,11 +2947,11 @@
         <v>8</v>
       </c>
       <c r="G49" t="str">
-        <f>LEFT(F49,2)</f>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="H49" t="str">
-        <f>RIGHT(F49,LEN(F49)-2)</f>
+        <f t="shared" si="3"/>
         <v>a</v>
       </c>
       <c r="I49" t="s">
@@ -2954,7 +2967,7 @@
         <v>1.0369999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>14</v>
       </c>
@@ -2974,11 +2987,11 @@
         <v>6</v>
       </c>
       <c r="G50" t="str">
-        <f>LEFT(F50,2)</f>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="H50" t="str">
-        <f>RIGHT(F50,LEN(F50)-2)</f>
+        <f t="shared" si="3"/>
         <v>ag</v>
       </c>
       <c r="I50" t="s">
@@ -2994,7 +3007,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>14</v>
       </c>
@@ -3014,11 +3027,11 @@
         <v>11</v>
       </c>
       <c r="G51" t="str">
-        <f>LEFT(F51,2)</f>
+        <f t="shared" si="2"/>
         <v>02</v>
       </c>
       <c r="H51" t="str">
-        <f>RIGHT(F51,LEN(F51)-2)</f>
+        <f t="shared" si="3"/>
         <v>a</v>
       </c>
       <c r="I51" t="s">
@@ -3034,7 +3047,7 @@
         <v>1.349</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>14</v>
       </c>
@@ -3054,11 +3067,11 @@
         <v>11</v>
       </c>
       <c r="G52" t="str">
-        <f>LEFT(F52,2)</f>
+        <f t="shared" si="2"/>
         <v>02</v>
       </c>
       <c r="H52" t="str">
-        <f>RIGHT(F52,LEN(F52)-2)</f>
+        <f t="shared" si="3"/>
         <v>a</v>
       </c>
       <c r="I52" t="s">
@@ -3074,7 +3087,7 @@
         <v>1.347</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>14</v>
       </c>
@@ -3094,11 +3107,11 @@
         <v>10</v>
       </c>
       <c r="G53" t="str">
-        <f>LEFT(F53,2)</f>
+        <f t="shared" si="2"/>
         <v>06</v>
       </c>
       <c r="H53" t="str">
-        <f>RIGHT(F53,LEN(F53)-2)</f>
+        <f t="shared" si="3"/>
         <v>a</v>
       </c>
       <c r="I53" t="s">
@@ -3114,7 +3127,7 @@
         <v>1.363</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>14</v>
       </c>
@@ -3134,11 +3147,11 @@
         <v>10</v>
       </c>
       <c r="G54" t="str">
-        <f>LEFT(F54,2)</f>
+        <f t="shared" si="2"/>
         <v>06</v>
       </c>
       <c r="H54" t="str">
-        <f>RIGHT(F54,LEN(F54)-2)</f>
+        <f t="shared" si="3"/>
         <v>a</v>
       </c>
       <c r="I54" t="s">
@@ -3154,7 +3167,7 @@
         <v>1.371</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>14</v>
       </c>
@@ -3174,11 +3187,11 @@
         <v>11</v>
       </c>
       <c r="G55" t="str">
-        <f>LEFT(F55,2)</f>
+        <f t="shared" si="2"/>
         <v>02</v>
       </c>
       <c r="H55" t="str">
-        <f>RIGHT(F55,LEN(F55)-2)</f>
+        <f t="shared" si="3"/>
         <v>a</v>
       </c>
       <c r="I55" t="s">
@@ -3194,7 +3207,7 @@
         <v>1.369</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>14</v>
       </c>
@@ -3214,11 +3227,11 @@
         <v>10</v>
       </c>
       <c r="G56" t="str">
-        <f>LEFT(F56,2)</f>
+        <f t="shared" si="2"/>
         <v>06</v>
       </c>
       <c r="H56" t="str">
-        <f>RIGHT(F56,LEN(F56)-2)</f>
+        <f t="shared" si="3"/>
         <v>a</v>
       </c>
       <c r="I56" t="s">
@@ -3234,7 +3247,7 @@
         <v>1.367</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>14</v>
       </c>
@@ -3254,11 +3267,11 @@
         <v>10</v>
       </c>
       <c r="G57" t="str">
-        <f>LEFT(F57,2)</f>
+        <f t="shared" si="2"/>
         <v>06</v>
       </c>
       <c r="H57" t="str">
-        <f>RIGHT(F57,LEN(F57)-2)</f>
+        <f t="shared" si="3"/>
         <v>a</v>
       </c>
       <c r="I57" t="s">
@@ -3274,7 +3287,7 @@
         <v>1.429</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>14</v>
       </c>
@@ -3294,11 +3307,11 @@
         <v>16</v>
       </c>
       <c r="G58" t="str">
-        <f>LEFT(F58,2)</f>
+        <f t="shared" si="2"/>
         <v>05</v>
       </c>
       <c r="H58" t="str">
-        <f>RIGHT(F58,LEN(F58)-2)</f>
+        <f t="shared" si="3"/>
         <v>a</v>
       </c>
       <c r="I58" t="s">
@@ -3314,7 +3327,7 @@
         <v>1.3660000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>14</v>
       </c>
@@ -3334,11 +3347,11 @@
         <v>16</v>
       </c>
       <c r="G59" t="str">
-        <f>LEFT(F59,2)</f>
+        <f t="shared" si="2"/>
         <v>05</v>
       </c>
       <c r="H59" t="str">
-        <f>RIGHT(F59,LEN(F59)-2)</f>
+        <f t="shared" si="3"/>
         <v>a</v>
       </c>
       <c r="I59" t="s">
@@ -3354,7 +3367,7 @@
         <v>1.399</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>14</v>
       </c>
@@ -3374,11 +3387,11 @@
         <v>17</v>
       </c>
       <c r="G60" t="str">
-        <f>LEFT(F60,2)</f>
+        <f t="shared" si="2"/>
         <v>03</v>
       </c>
       <c r="H60" t="str">
-        <f>RIGHT(F60,LEN(F60)-2)</f>
+        <f t="shared" si="3"/>
         <v>a</v>
       </c>
       <c r="I60" t="s">
@@ -3394,7 +3407,7 @@
         <v>1.3009999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>14</v>
       </c>
@@ -3414,11 +3427,11 @@
         <v>17</v>
       </c>
       <c r="G61" t="str">
-        <f>LEFT(F61,2)</f>
+        <f t="shared" si="2"/>
         <v>03</v>
       </c>
       <c r="H61" t="str">
-        <f>RIGHT(F61,LEN(F61)-2)</f>
+        <f t="shared" si="3"/>
         <v>a</v>
       </c>
       <c r="I61" t="s">
@@ -3434,7 +3447,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>14</v>
       </c>
@@ -3454,11 +3467,11 @@
         <v>18</v>
       </c>
       <c r="G62" t="str">
-        <f>LEFT(F62,2)</f>
+        <f t="shared" si="2"/>
         <v>04</v>
       </c>
       <c r="H62" t="str">
-        <f>RIGHT(F62,LEN(F62)-2)</f>
+        <f t="shared" si="3"/>
         <v>a</v>
       </c>
       <c r="I62" t="s">
@@ -3474,7 +3487,7 @@
         <v>1.3859999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>14</v>
       </c>
@@ -3494,11 +3507,11 @@
         <v>18</v>
       </c>
       <c r="G63" t="str">
-        <f>LEFT(F63,2)</f>
+        <f t="shared" si="2"/>
         <v>04</v>
       </c>
       <c r="H63" t="str">
-        <f>RIGHT(F63,LEN(F63)-2)</f>
+        <f t="shared" si="3"/>
         <v>a</v>
       </c>
       <c r="I63" t="s">
@@ -3514,7 +3527,7 @@
         <v>1.3819999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>14</v>
       </c>
@@ -3534,11 +3547,11 @@
         <v>17</v>
       </c>
       <c r="G64" t="str">
-        <f>LEFT(F64,2)</f>
+        <f t="shared" si="2"/>
         <v>03</v>
       </c>
       <c r="H64" t="str">
-        <f>RIGHT(F64,LEN(F64)-2)</f>
+        <f t="shared" si="3"/>
         <v>a</v>
       </c>
       <c r="I64" t="s">
@@ -3554,7 +3567,7 @@
         <v>1.3240000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>14</v>
       </c>
@@ -3574,11 +3587,11 @@
         <v>17</v>
       </c>
       <c r="G65" t="str">
-        <f>LEFT(F65,2)</f>
+        <f t="shared" si="2"/>
         <v>03</v>
       </c>
       <c r="H65" t="str">
-        <f>RIGHT(F65,LEN(F65)-2)</f>
+        <f t="shared" si="3"/>
         <v>a</v>
       </c>
       <c r="I65" t="s">
@@ -3594,7 +3607,7 @@
         <v>1.3560000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>14</v>
       </c>
@@ -3614,11 +3627,11 @@
         <v>18</v>
       </c>
       <c r="G66" t="str">
-        <f>LEFT(F66,2)</f>
+        <f t="shared" ref="G66:G97" si="4">LEFT(F66,2)</f>
         <v>04</v>
       </c>
       <c r="H66" t="str">
-        <f>RIGHT(F66,LEN(F66)-2)</f>
+        <f t="shared" ref="H66:H97" si="5">RIGHT(F66,LEN(F66)-2)</f>
         <v>a</v>
       </c>
       <c r="I66" t="s">
@@ -3634,7 +3647,7 @@
         <v>1.375</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>14</v>
       </c>
@@ -3654,11 +3667,11 @@
         <v>18</v>
       </c>
       <c r="G67" t="str">
-        <f>LEFT(F67,2)</f>
+        <f t="shared" si="4"/>
         <v>04</v>
       </c>
       <c r="H67" t="str">
-        <f>RIGHT(F67,LEN(F67)-2)</f>
+        <f t="shared" si="5"/>
         <v>a</v>
       </c>
       <c r="I67" t="s">
@@ -3674,7 +3687,7 @@
         <v>1.3480000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>14</v>
       </c>
@@ -3694,11 +3707,11 @@
         <v>17</v>
       </c>
       <c r="G68" t="str">
-        <f>LEFT(F68,2)</f>
+        <f t="shared" si="4"/>
         <v>03</v>
       </c>
       <c r="H68" t="str">
-        <f>RIGHT(F68,LEN(F68)-2)</f>
+        <f t="shared" si="5"/>
         <v>a</v>
       </c>
       <c r="I68" t="s">
@@ -3714,7 +3727,7 @@
         <v>1.274</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>14</v>
       </c>
@@ -3734,11 +3747,11 @@
         <v>11</v>
       </c>
       <c r="G69" t="str">
-        <f>LEFT(F69,2)</f>
+        <f t="shared" si="4"/>
         <v>02</v>
       </c>
       <c r="H69" t="str">
-        <f>RIGHT(F69,LEN(F69)-2)</f>
+        <f t="shared" si="5"/>
         <v>a</v>
       </c>
       <c r="I69" t="s">
@@ -3754,7 +3767,7 @@
         <v>1.2989999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>14</v>
       </c>
@@ -3774,11 +3787,11 @@
         <v>11</v>
       </c>
       <c r="G70" t="str">
-        <f>LEFT(F70,2)</f>
+        <f t="shared" si="4"/>
         <v>02</v>
       </c>
       <c r="H70" t="str">
-        <f>RIGHT(F70,LEN(F70)-2)</f>
+        <f t="shared" si="5"/>
         <v>a</v>
       </c>
       <c r="I70" t="s">
@@ -3794,7 +3807,7 @@
         <v>1.2050000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>14</v>
       </c>
@@ -3814,11 +3827,11 @@
         <v>11</v>
       </c>
       <c r="G71" t="str">
-        <f>LEFT(F71,2)</f>
+        <f t="shared" si="4"/>
         <v>02</v>
       </c>
       <c r="H71" t="str">
-        <f>RIGHT(F71,LEN(F71)-2)</f>
+        <f t="shared" si="5"/>
         <v>a</v>
       </c>
       <c r="I71" t="s">
@@ -3834,7 +3847,7 @@
         <v>1.2529999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>14</v>
       </c>
@@ -3854,11 +3867,11 @@
         <v>10</v>
       </c>
       <c r="G72" t="str">
-        <f>LEFT(F72,2)</f>
+        <f t="shared" si="4"/>
         <v>06</v>
       </c>
       <c r="H72" t="str">
-        <f>RIGHT(F72,LEN(F72)-2)</f>
+        <f t="shared" si="5"/>
         <v>a</v>
       </c>
       <c r="I72" t="s">
@@ -3874,7 +3887,7 @@
         <v>1.224</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>14</v>
       </c>
@@ -3894,11 +3907,11 @@
         <v>10</v>
       </c>
       <c r="G73" t="str">
-        <f>LEFT(F73,2)</f>
+        <f t="shared" si="4"/>
         <v>06</v>
       </c>
       <c r="H73" t="str">
-        <f>RIGHT(F73,LEN(F73)-2)</f>
+        <f t="shared" si="5"/>
         <v>a</v>
       </c>
       <c r="I73" t="s">
@@ -3914,7 +3927,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>14</v>
       </c>
@@ -3934,11 +3947,11 @@
         <v>11</v>
       </c>
       <c r="G74" t="str">
-        <f>LEFT(F74,2)</f>
+        <f t="shared" si="4"/>
         <v>02</v>
       </c>
       <c r="H74" t="str">
-        <f>RIGHT(F74,LEN(F74)-2)</f>
+        <f t="shared" si="5"/>
         <v>a</v>
       </c>
       <c r="I74" t="s">
@@ -3954,7 +3967,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>14</v>
       </c>
@@ -3974,11 +3987,11 @@
         <v>11</v>
       </c>
       <c r="G75" t="str">
-        <f>LEFT(F75,2)</f>
+        <f t="shared" si="4"/>
         <v>02</v>
       </c>
       <c r="H75" t="str">
-        <f>RIGHT(F75,LEN(F75)-2)</f>
+        <f t="shared" si="5"/>
         <v>a</v>
       </c>
       <c r="I75" t="s">
@@ -3994,7 +4007,7 @@
         <v>1.234</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>14</v>
       </c>
@@ -4014,11 +4027,11 @@
         <v>11</v>
       </c>
       <c r="G76" t="str">
-        <f>LEFT(F76,2)</f>
+        <f t="shared" si="4"/>
         <v>02</v>
       </c>
       <c r="H76" t="str">
-        <f>RIGHT(F76,LEN(F76)-2)</f>
+        <f t="shared" si="5"/>
         <v>a</v>
       </c>
       <c r="I76" t="s">
@@ -4034,7 +4047,7 @@
         <v>1.2350000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>14</v>
       </c>
@@ -4054,11 +4067,11 @@
         <v>18</v>
       </c>
       <c r="G77" t="str">
-        <f>LEFT(F77,2)</f>
+        <f t="shared" si="4"/>
         <v>04</v>
       </c>
       <c r="H77" t="str">
-        <f>RIGHT(F77,LEN(F77)-2)</f>
+        <f t="shared" si="5"/>
         <v>a</v>
       </c>
       <c r="I77" t="s">
@@ -4074,7 +4087,7 @@
         <v>1.206</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>14</v>
       </c>
@@ -4094,11 +4107,11 @@
         <v>18</v>
       </c>
       <c r="G78" t="str">
-        <f>LEFT(F78,2)</f>
+        <f t="shared" si="4"/>
         <v>04</v>
       </c>
       <c r="H78" t="str">
-        <f>RIGHT(F78,LEN(F78)-2)</f>
+        <f t="shared" si="5"/>
         <v>a</v>
       </c>
       <c r="I78" t="s">
@@ -4114,7 +4127,7 @@
         <v>1.2170000000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>14</v>
       </c>
@@ -4134,11 +4147,11 @@
         <v>11</v>
       </c>
       <c r="G79" t="str">
-        <f>LEFT(F79,2)</f>
+        <f t="shared" si="4"/>
         <v>02</v>
       </c>
       <c r="H79" t="str">
-        <f>RIGHT(F79,LEN(F79)-2)</f>
+        <f t="shared" si="5"/>
         <v>a</v>
       </c>
       <c r="I79" t="s">
@@ -4154,7 +4167,7 @@
         <v>1.1559999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>14</v>
       </c>
@@ -4174,11 +4187,11 @@
         <v>10</v>
       </c>
       <c r="G80" t="str">
-        <f>LEFT(F80,2)</f>
+        <f t="shared" si="4"/>
         <v>06</v>
       </c>
       <c r="H80" t="str">
-        <f>RIGHT(F80,LEN(F80)-2)</f>
+        <f t="shared" si="5"/>
         <v>a</v>
       </c>
       <c r="I80" t="s">
@@ -4194,7 +4207,7 @@
         <v>1.1759999999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>14</v>
       </c>
@@ -4214,11 +4227,11 @@
         <v>10</v>
       </c>
       <c r="G81" t="str">
-        <f>LEFT(F81,2)</f>
+        <f t="shared" si="4"/>
         <v>06</v>
       </c>
       <c r="H81" t="str">
-        <f>RIGHT(F81,LEN(F81)-2)</f>
+        <f t="shared" si="5"/>
         <v>a</v>
       </c>
       <c r="I81" t="s">
@@ -4234,7 +4247,7 @@
         <v>1.258</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>14</v>
       </c>
@@ -4254,11 +4267,11 @@
         <v>10</v>
       </c>
       <c r="G82" t="str">
-        <f>LEFT(F82,2)</f>
+        <f t="shared" si="4"/>
         <v>06</v>
       </c>
       <c r="H82" t="str">
-        <f>RIGHT(F82,LEN(F82)-2)</f>
+        <f t="shared" si="5"/>
         <v>a</v>
       </c>
       <c r="I82" t="s">
@@ -4274,7 +4287,7 @@
         <v>1.212</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>14</v>
       </c>
@@ -4294,11 +4307,11 @@
         <v>11</v>
       </c>
       <c r="G83" t="str">
-        <f>LEFT(F83,2)</f>
+        <f t="shared" si="4"/>
         <v>02</v>
       </c>
       <c r="H83" t="str">
-        <f>RIGHT(F83,LEN(F83)-2)</f>
+        <f t="shared" si="5"/>
         <v>a</v>
       </c>
       <c r="I83" t="s">
@@ -4314,7 +4327,7 @@
         <v>1.218</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>14</v>
       </c>
@@ -4334,11 +4347,11 @@
         <v>11</v>
       </c>
       <c r="G84" t="str">
-        <f>LEFT(F84,2)</f>
+        <f t="shared" si="4"/>
         <v>02</v>
       </c>
       <c r="H84" t="str">
-        <f>RIGHT(F84,LEN(F84)-2)</f>
+        <f t="shared" si="5"/>
         <v>a</v>
       </c>
       <c r="I84" t="s">
@@ -4354,7 +4367,7 @@
         <v>1.1919999999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>14</v>
       </c>
@@ -4374,11 +4387,11 @@
         <v>11</v>
       </c>
       <c r="G85" t="str">
-        <f>LEFT(F85,2)</f>
+        <f t="shared" si="4"/>
         <v>02</v>
       </c>
       <c r="H85" t="str">
-        <f>RIGHT(F85,LEN(F85)-2)</f>
+        <f t="shared" si="5"/>
         <v>a</v>
       </c>
       <c r="I85" t="s">
@@ -4394,7 +4407,7 @@
         <v>1.177</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>14</v>
       </c>
@@ -4414,11 +4427,11 @@
         <v>11</v>
       </c>
       <c r="G86" t="str">
-        <f>LEFT(F86,2)</f>
+        <f t="shared" si="4"/>
         <v>02</v>
       </c>
       <c r="H86" t="str">
-        <f>RIGHT(F86,LEN(F86)-2)</f>
+        <f t="shared" si="5"/>
         <v>a</v>
       </c>
       <c r="I86" t="s">
@@ -4434,7 +4447,7 @@
         <v>1.169</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>14</v>
       </c>
@@ -4454,11 +4467,11 @@
         <v>10</v>
       </c>
       <c r="G87" t="str">
-        <f>LEFT(F87,2)</f>
+        <f t="shared" si="4"/>
         <v>06</v>
       </c>
       <c r="H87" t="str">
-        <f>RIGHT(F87,LEN(F87)-2)</f>
+        <f t="shared" si="5"/>
         <v>a</v>
       </c>
       <c r="I87" t="s">
@@ -4474,7 +4487,7 @@
         <v>1.2250000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>14</v>
       </c>
@@ -4494,11 +4507,11 @@
         <v>10</v>
       </c>
       <c r="G88" t="str">
-        <f>LEFT(F88,2)</f>
+        <f t="shared" si="4"/>
         <v>06</v>
       </c>
       <c r="H88" t="str">
-        <f>RIGHT(F88,LEN(F88)-2)</f>
+        <f t="shared" si="5"/>
         <v>a</v>
       </c>
       <c r="I88" t="s">
@@ -4514,7 +4527,7 @@
         <v>1.238</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>14</v>
       </c>
@@ -4534,11 +4547,11 @@
         <v>11</v>
       </c>
       <c r="G89" t="str">
-        <f>LEFT(F89,2)</f>
+        <f t="shared" si="4"/>
         <v>02</v>
       </c>
       <c r="H89" t="str">
-        <f>RIGHT(F89,LEN(F89)-2)</f>
+        <f t="shared" si="5"/>
         <v>a</v>
       </c>
       <c r="I89" t="s">
@@ -4554,7 +4567,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>14</v>
       </c>
@@ -4574,11 +4587,11 @@
         <v>11</v>
       </c>
       <c r="G90" t="str">
-        <f>LEFT(F90,2)</f>
+        <f t="shared" si="4"/>
         <v>02</v>
       </c>
       <c r="H90" t="str">
-        <f>RIGHT(F90,LEN(F90)-2)</f>
+        <f t="shared" si="5"/>
         <v>a</v>
       </c>
       <c r="I90" t="s">
@@ -4594,7 +4607,7 @@
         <v>1.2250000000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>14</v>
       </c>
@@ -4614,11 +4627,11 @@
         <v>10</v>
       </c>
       <c r="G91" t="str">
-        <f>LEFT(F91,2)</f>
+        <f t="shared" si="4"/>
         <v>06</v>
       </c>
       <c r="H91" t="str">
-        <f>RIGHT(F91,LEN(F91)-2)</f>
+        <f t="shared" si="5"/>
         <v>a</v>
       </c>
       <c r="I91" t="s">
@@ -4634,7 +4647,7 @@
         <v>1.244</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>14</v>
       </c>
@@ -4654,11 +4667,11 @@
         <v>10</v>
       </c>
       <c r="G92" t="str">
-        <f>LEFT(F92,2)</f>
+        <f t="shared" si="4"/>
         <v>06</v>
       </c>
       <c r="H92" t="str">
-        <f>RIGHT(F92,LEN(F92)-2)</f>
+        <f t="shared" si="5"/>
         <v>a</v>
       </c>
       <c r="I92" t="s">
@@ -4674,7 +4687,7 @@
         <v>1.194</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>14</v>
       </c>
@@ -4694,11 +4707,11 @@
         <v>11</v>
       </c>
       <c r="G93" t="str">
-        <f>LEFT(F93,2)</f>
+        <f t="shared" si="4"/>
         <v>02</v>
       </c>
       <c r="H93" t="str">
-        <f>RIGHT(F93,LEN(F93)-2)</f>
+        <f t="shared" si="5"/>
         <v>a</v>
       </c>
       <c r="I93" t="s">
@@ -4714,7 +4727,7 @@
         <v>1.234</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>14</v>
       </c>
@@ -4734,11 +4747,11 @@
         <v>11</v>
       </c>
       <c r="G94" t="str">
-        <f>LEFT(F94,2)</f>
+        <f t="shared" si="4"/>
         <v>02</v>
       </c>
       <c r="H94" t="str">
-        <f>RIGHT(F94,LEN(F94)-2)</f>
+        <f t="shared" si="5"/>
         <v>a</v>
       </c>
       <c r="I94" t="s">
@@ -4754,7 +4767,7 @@
         <v>1.1619999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>14</v>
       </c>
@@ -4774,11 +4787,11 @@
         <v>11</v>
       </c>
       <c r="G95" t="str">
-        <f>LEFT(F95,2)</f>
+        <f t="shared" si="4"/>
         <v>02</v>
       </c>
       <c r="H95" t="str">
-        <f>RIGHT(F95,LEN(F95)-2)</f>
+        <f t="shared" si="5"/>
         <v>a</v>
       </c>
       <c r="I95" t="s">
@@ -4794,7 +4807,7 @@
         <v>1.3919999999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>14</v>
       </c>
@@ -4814,11 +4827,11 @@
         <v>11</v>
       </c>
       <c r="G96" t="str">
-        <f>LEFT(F96,2)</f>
+        <f t="shared" si="4"/>
         <v>02</v>
       </c>
       <c r="H96" t="str">
-        <f>RIGHT(F96,LEN(F96)-2)</f>
+        <f t="shared" si="5"/>
         <v>a</v>
       </c>
       <c r="I96" t="s">
@@ -4834,7 +4847,7 @@
         <v>1.389</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>14</v>
       </c>
@@ -4854,11 +4867,11 @@
         <v>19</v>
       </c>
       <c r="G97" t="str">
-        <f>LEFT(F97,2)</f>
+        <f t="shared" si="4"/>
         <v>09</v>
       </c>
       <c r="H97" t="str">
-        <f>RIGHT(F97,LEN(F97)-2)</f>
+        <f t="shared" si="5"/>
         <v>a</v>
       </c>
       <c r="I97" t="s">
@@ -4874,7 +4887,7 @@
         <v>1.6439999999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>14</v>
       </c>
@@ -4894,11 +4907,11 @@
         <v>19</v>
       </c>
       <c r="G98" t="str">
-        <f>LEFT(F98,2)</f>
+        <f t="shared" ref="G98:G129" si="6">LEFT(F98,2)</f>
         <v>09</v>
       </c>
       <c r="H98" t="str">
-        <f>RIGHT(F98,LEN(F98)-2)</f>
+        <f t="shared" ref="H98:H130" si="7">RIGHT(F98,LEN(F98)-2)</f>
         <v>a</v>
       </c>
       <c r="I98" t="s">
@@ -4914,7 +4927,7 @@
         <v>1.5629999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>14</v>
       </c>
@@ -4934,11 +4947,11 @@
         <v>10</v>
       </c>
       <c r="G99" t="str">
-        <f>LEFT(F99,2)</f>
+        <f t="shared" si="6"/>
         <v>06</v>
       </c>
       <c r="H99" t="str">
-        <f>RIGHT(F99,LEN(F99)-2)</f>
+        <f t="shared" si="7"/>
         <v>a</v>
       </c>
       <c r="I99" t="s">
@@ -4954,7 +4967,7 @@
         <v>1.3979999999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>14</v>
       </c>
@@ -4974,11 +4987,11 @@
         <v>10</v>
       </c>
       <c r="G100" t="str">
-        <f>LEFT(F100,2)</f>
+        <f t="shared" si="6"/>
         <v>06</v>
       </c>
       <c r="H100" t="str">
-        <f>RIGHT(F100,LEN(F100)-2)</f>
+        <f t="shared" si="7"/>
         <v>a</v>
       </c>
       <c r="I100" t="s">
@@ -4994,7 +5007,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>14</v>
       </c>
@@ -5014,11 +5027,11 @@
         <v>16</v>
       </c>
       <c r="G101" t="str">
-        <f>LEFT(F101,2)</f>
+        <f t="shared" si="6"/>
         <v>05</v>
       </c>
       <c r="H101" t="str">
-        <f>RIGHT(F101,LEN(F101)-2)</f>
+        <f t="shared" si="7"/>
         <v>a</v>
       </c>
       <c r="I101" t="s">
@@ -5034,7 +5047,7 @@
         <v>1.385</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>14</v>
       </c>
@@ -5054,11 +5067,11 @@
         <v>16</v>
       </c>
       <c r="G102" t="str">
-        <f>LEFT(F102,2)</f>
+        <f t="shared" si="6"/>
         <v>05</v>
       </c>
       <c r="H102" t="str">
-        <f>RIGHT(F102,LEN(F102)-2)</f>
+        <f t="shared" si="7"/>
         <v>a</v>
       </c>
       <c r="I102" t="s">
@@ -5074,7 +5087,7 @@
         <v>1.4219999999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>14</v>
       </c>
@@ -5094,11 +5107,11 @@
         <v>10</v>
       </c>
       <c r="G103" t="str">
-        <f>LEFT(F103,2)</f>
+        <f t="shared" si="6"/>
         <v>06</v>
       </c>
       <c r="H103" t="str">
-        <f>RIGHT(F103,LEN(F103)-2)</f>
+        <f t="shared" si="7"/>
         <v>a</v>
       </c>
       <c r="I103" t="s">
@@ -5114,7 +5127,7 @@
         <v>1.403</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>14</v>
       </c>
@@ -5134,11 +5147,11 @@
         <v>10</v>
       </c>
       <c r="G104" t="str">
-        <f>LEFT(F104,2)</f>
+        <f t="shared" si="6"/>
         <v>06</v>
       </c>
       <c r="H104" t="str">
-        <f>RIGHT(F104,LEN(F104)-2)</f>
+        <f t="shared" si="7"/>
         <v>a</v>
       </c>
       <c r="I104" t="s">
@@ -5154,7 +5167,7 @@
         <v>1.3620000000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>14</v>
       </c>
@@ -5174,11 +5187,11 @@
         <v>20</v>
       </c>
       <c r="G105" t="str">
-        <f>LEFT(F105,2)</f>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="H105" t="str">
-        <f>RIGHT(F105,LEN(F105)-2)</f>
+        <f t="shared" si="7"/>
         <v>a</v>
       </c>
       <c r="I105" t="s">
@@ -5194,7 +5207,7 @@
         <v>1.3080000000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>14</v>
       </c>
@@ -5214,11 +5227,11 @@
         <v>20</v>
       </c>
       <c r="G106" t="str">
-        <f>LEFT(F106,2)</f>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="H106" t="str">
-        <f>RIGHT(F106,LEN(F106)-2)</f>
+        <f t="shared" si="7"/>
         <v>a</v>
       </c>
       <c r="I106" t="s">
@@ -5234,7 +5247,7 @@
         <v>1.343</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>14</v>
       </c>
@@ -5254,11 +5267,11 @@
         <v>20</v>
       </c>
       <c r="G107" t="str">
-        <f>LEFT(F107,2)</f>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="H107" t="str">
-        <f>RIGHT(F107,LEN(F107)-2)</f>
+        <f t="shared" si="7"/>
         <v>a</v>
       </c>
       <c r="I107" t="s">
@@ -5274,7 +5287,7 @@
         <v>1.294</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>14</v>
       </c>
@@ -5294,11 +5307,11 @@
         <v>20</v>
       </c>
       <c r="G108" t="str">
-        <f>LEFT(F108,2)</f>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="H108" t="str">
-        <f>RIGHT(F108,LEN(F108)-2)</f>
+        <f t="shared" si="7"/>
         <v>a</v>
       </c>
       <c r="I108" t="s">
@@ -5314,7 +5327,7 @@
         <v>1.337</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>14</v>
       </c>
@@ -5334,11 +5347,11 @@
         <v>20</v>
       </c>
       <c r="G109" t="str">
-        <f>LEFT(F109,2)</f>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="H109" t="str">
-        <f>RIGHT(F109,LEN(F109)-2)</f>
+        <f t="shared" si="7"/>
         <v>a</v>
       </c>
       <c r="I109" t="s">
@@ -5354,7 +5367,7 @@
         <v>1.288</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>14</v>
       </c>
@@ -5374,11 +5387,11 @@
         <v>20</v>
       </c>
       <c r="G110" t="str">
-        <f>LEFT(F110,2)</f>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="H110" t="str">
-        <f>RIGHT(F110,LEN(F110)-2)</f>
+        <f t="shared" si="7"/>
         <v>a</v>
       </c>
       <c r="I110" t="s">
@@ -5394,7 +5407,7 @@
         <v>1.302</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>14</v>
       </c>
@@ -5414,11 +5427,11 @@
         <v>10</v>
       </c>
       <c r="G111" t="str">
-        <f>LEFT(F111,2)</f>
+        <f t="shared" si="6"/>
         <v>06</v>
       </c>
       <c r="H111" t="str">
-        <f>RIGHT(F111,LEN(F111)-2)</f>
+        <f t="shared" si="7"/>
         <v>a</v>
       </c>
       <c r="I111" t="s">
@@ -5434,7 +5447,7 @@
         <v>1.3280000000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>14</v>
       </c>
@@ -5454,11 +5467,11 @@
         <v>10</v>
       </c>
       <c r="G112" t="str">
-        <f>LEFT(F112,2)</f>
+        <f t="shared" si="6"/>
         <v>06</v>
       </c>
       <c r="H112" t="str">
-        <f>RIGHT(F112,LEN(F112)-2)</f>
+        <f t="shared" si="7"/>
         <v>a</v>
       </c>
       <c r="I112" t="s">
@@ -5474,7 +5487,7 @@
         <v>1.3340000000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>14</v>
       </c>
@@ -5494,11 +5507,11 @@
         <v>18</v>
       </c>
       <c r="G113" t="str">
-        <f>LEFT(F113,2)</f>
+        <f t="shared" si="6"/>
         <v>04</v>
       </c>
       <c r="H113" t="str">
-        <f>RIGHT(F113,LEN(F113)-2)</f>
+        <f t="shared" si="7"/>
         <v>a</v>
       </c>
       <c r="I113" t="s">
@@ -5514,7 +5527,7 @@
         <v>1.2450000000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>14</v>
       </c>
@@ -5534,11 +5547,11 @@
         <v>17</v>
       </c>
       <c r="G114" t="str">
-        <f>LEFT(F114,2)</f>
+        <f t="shared" si="6"/>
         <v>03</v>
       </c>
       <c r="H114" t="str">
-        <f>RIGHT(F114,LEN(F114)-2)</f>
+        <f t="shared" si="7"/>
         <v>a</v>
       </c>
       <c r="I114" t="s">
@@ -5554,7 +5567,7 @@
         <v>1.2729999999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>14</v>
       </c>
@@ -5574,11 +5587,11 @@
         <v>10</v>
       </c>
       <c r="G115" t="str">
-        <f>LEFT(F115,2)</f>
+        <f t="shared" si="6"/>
         <v>06</v>
       </c>
       <c r="H115" t="str">
-        <f>RIGHT(F115,LEN(F115)-2)</f>
+        <f t="shared" si="7"/>
         <v>a</v>
       </c>
       <c r="I115" t="s">
@@ -5594,7 +5607,7 @@
         <v>1.335</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>14</v>
       </c>
@@ -5614,11 +5627,11 @@
         <v>10</v>
       </c>
       <c r="G116" t="str">
-        <f>LEFT(F116,2)</f>
+        <f t="shared" si="6"/>
         <v>06</v>
       </c>
       <c r="H116" t="str">
-        <f>RIGHT(F116,LEN(F116)-2)</f>
+        <f t="shared" si="7"/>
         <v>a</v>
       </c>
       <c r="I116" t="s">
@@ -5634,7 +5647,7 @@
         <v>1.337</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>14</v>
       </c>
@@ -5654,11 +5667,11 @@
         <v>10</v>
       </c>
       <c r="G117" t="str">
-        <f>LEFT(F117,2)</f>
+        <f t="shared" si="6"/>
         <v>06</v>
       </c>
       <c r="H117" t="str">
-        <f>RIGHT(F117,LEN(F117)-2)</f>
+        <f t="shared" si="7"/>
         <v>a</v>
       </c>
       <c r="I117" t="s">
@@ -5674,7 +5687,7 @@
         <v>1.391</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>14</v>
       </c>
@@ -5694,11 +5707,11 @@
         <v>19</v>
       </c>
       <c r="G118" t="str">
-        <f>LEFT(F118,2)</f>
+        <f t="shared" si="6"/>
         <v>09</v>
       </c>
       <c r="H118" t="str">
-        <f>RIGHT(F118,LEN(F118)-2)</f>
+        <f t="shared" si="7"/>
         <v>a</v>
       </c>
       <c r="I118" t="s">
@@ -5714,7 +5727,7 @@
         <v>1.4470000000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>14</v>
       </c>
@@ -5734,11 +5747,11 @@
         <v>10</v>
       </c>
       <c r="G119" t="str">
-        <f>LEFT(F119,2)</f>
+        <f t="shared" si="6"/>
         <v>06</v>
       </c>
       <c r="H119" t="str">
-        <f>RIGHT(F119,LEN(F119)-2)</f>
+        <f t="shared" si="7"/>
         <v>a</v>
       </c>
       <c r="I119" t="s">
@@ -5754,7 +5767,7 @@
         <v>1.4279999999999999</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>14</v>
       </c>
@@ -5774,11 +5787,11 @@
         <v>19</v>
       </c>
       <c r="G120" t="str">
-        <f>LEFT(F120,2)</f>
+        <f t="shared" si="6"/>
         <v>09</v>
       </c>
       <c r="H120" t="str">
-        <f>RIGHT(F120,LEN(F120)-2)</f>
+        <f t="shared" si="7"/>
         <v>a</v>
       </c>
       <c r="I120" t="s">
@@ -5794,7 +5807,7 @@
         <v>1.4319999999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>14</v>
       </c>
@@ -5814,11 +5827,11 @@
         <v>19</v>
       </c>
       <c r="G121" t="str">
-        <f>LEFT(F121,2)</f>
+        <f t="shared" si="6"/>
         <v>09</v>
       </c>
       <c r="H121" t="str">
-        <f>RIGHT(F121,LEN(F121)-2)</f>
+        <f t="shared" si="7"/>
         <v>a</v>
       </c>
       <c r="I121" t="s">
@@ -5834,7 +5847,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>14</v>
       </c>
@@ -5854,11 +5867,11 @@
         <v>10</v>
       </c>
       <c r="G122" t="str">
-        <f>LEFT(F122,2)</f>
+        <f t="shared" si="6"/>
         <v>06</v>
       </c>
       <c r="H122" t="str">
-        <f>RIGHT(F122,LEN(F122)-2)</f>
+        <f t="shared" si="7"/>
         <v>a</v>
       </c>
       <c r="I122" t="s">
@@ -5874,7 +5887,7 @@
         <v>1.4710000000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>14</v>
       </c>
@@ -5894,11 +5907,11 @@
         <v>19</v>
       </c>
       <c r="G123" t="str">
-        <f>LEFT(F123,2)</f>
+        <f t="shared" si="6"/>
         <v>09</v>
       </c>
       <c r="H123" t="str">
-        <f>RIGHT(F123,LEN(F123)-2)</f>
+        <f t="shared" si="7"/>
         <v>a</v>
       </c>
       <c r="I123" t="s">
@@ -5914,7 +5927,7 @@
         <v>1.415</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>14</v>
       </c>
@@ -5934,11 +5947,11 @@
         <v>10</v>
       </c>
       <c r="G124" t="str">
-        <f>LEFT(F124,2)</f>
+        <f t="shared" si="6"/>
         <v>06</v>
       </c>
       <c r="H124" t="str">
-        <f>RIGHT(F124,LEN(F124)-2)</f>
+        <f t="shared" si="7"/>
         <v>a</v>
       </c>
       <c r="I124" t="s">
@@ -5954,7 +5967,7 @@
         <v>1.4179999999999999</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>14</v>
       </c>
@@ -5974,11 +5987,11 @@
         <v>19</v>
       </c>
       <c r="G125" t="str">
-        <f>LEFT(F125,2)</f>
+        <f t="shared" si="6"/>
         <v>09</v>
       </c>
       <c r="H125" t="str">
-        <f>RIGHT(F125,LEN(F125)-2)</f>
+        <f t="shared" si="7"/>
         <v>a</v>
       </c>
       <c r="I125" t="s">
@@ -5994,7 +6007,7 @@
         <v>1.234</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>14</v>
       </c>
@@ -6014,11 +6027,11 @@
         <v>19</v>
       </c>
       <c r="G126" t="str">
-        <f>LEFT(F126,2)</f>
+        <f t="shared" si="6"/>
         <v>09</v>
       </c>
       <c r="H126" t="str">
-        <f>RIGHT(F126,LEN(F126)-2)</f>
+        <f t="shared" si="7"/>
         <v>a</v>
       </c>
       <c r="I126" t="s">
@@ -6034,7 +6047,7 @@
         <v>1.264</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>14</v>
       </c>
@@ -6054,11 +6067,11 @@
         <v>11</v>
       </c>
       <c r="G127" t="str">
-        <f>LEFT(F127,2)</f>
+        <f t="shared" si="6"/>
         <v>02</v>
       </c>
       <c r="H127" t="str">
-        <f>RIGHT(F127,LEN(F127)-2)</f>
+        <f t="shared" si="7"/>
         <v>a</v>
       </c>
       <c r="I127" t="s">
@@ -6074,7 +6087,7 @@
         <v>1.1639999999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>14</v>
       </c>
@@ -6094,11 +6107,11 @@
         <v>11</v>
       </c>
       <c r="G128" t="str">
-        <f>LEFT(F128,2)</f>
+        <f t="shared" si="6"/>
         <v>02</v>
       </c>
       <c r="H128" t="str">
-        <f>RIGHT(F128,LEN(F128)-2)</f>
+        <f t="shared" si="7"/>
         <v>a</v>
       </c>
       <c r="I128" t="s">
@@ -6114,7 +6127,7 @@
         <v>1.274</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>14</v>
       </c>
@@ -6134,11 +6147,11 @@
         <v>11</v>
       </c>
       <c r="G129" t="str">
-        <f>LEFT(F129,2)</f>
+        <f t="shared" si="6"/>
         <v>02</v>
       </c>
       <c r="H129" t="str">
-        <f>RIGHT(F129,LEN(F129)-2)</f>
+        <f t="shared" si="7"/>
         <v>a</v>
       </c>
       <c r="I129" t="s">
@@ -6154,7 +6167,7 @@
         <v>1.355</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>14</v>
       </c>
@@ -6174,11 +6187,11 @@
         <v>10</v>
       </c>
       <c r="G130" t="str">
-        <f>LEFT(F130,2)</f>
+        <f t="shared" ref="G130:G161" si="8">LEFT(F130,2)</f>
         <v>06</v>
       </c>
       <c r="H130" t="str">
-        <f>RIGHT(F130,LEN(F130)-2)</f>
+        <f t="shared" si="7"/>
         <v>a</v>
       </c>
       <c r="I130" t="s">
@@ -6194,7 +6207,7 @@
         <v>1.3919999999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>14</v>
       </c>
@@ -6214,11 +6227,11 @@
         <v>10</v>
       </c>
       <c r="G131" t="str">
-        <f t="shared" ref="G131:G194" si="0">LEFT(F131,2)</f>
+        <f t="shared" ref="G131:G194" si="9">LEFT(F131,2)</f>
         <v>06</v>
       </c>
       <c r="H131" t="str">
-        <f t="shared" ref="H131:H194" si="1">RIGHT(F131,LEN(F131)-2)</f>
+        <f t="shared" ref="H131:H194" si="10">RIGHT(F131,LEN(F131)-2)</f>
         <v>a</v>
       </c>
       <c r="I131" t="s">
@@ -6234,7 +6247,7 @@
         <v>1.415</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>14</v>
       </c>
@@ -6254,11 +6267,11 @@
         <v>19</v>
       </c>
       <c r="G132" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>09</v>
       </c>
       <c r="H132" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>a</v>
       </c>
       <c r="I132" t="s">
@@ -6274,7 +6287,7 @@
         <v>1.3440000000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>14</v>
       </c>
@@ -6294,11 +6307,11 @@
         <v>21</v>
       </c>
       <c r="G133" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>02</v>
       </c>
       <c r="H133" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>hg</v>
       </c>
       <c r="I133" t="s">
@@ -6314,7 +6327,7 @@
         <v>1.198</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>14</v>
       </c>
@@ -6334,11 +6347,11 @@
         <v>21</v>
       </c>
       <c r="G134" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>02</v>
       </c>
       <c r="H134" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>hg</v>
       </c>
       <c r="I134" t="s">
@@ -6354,7 +6367,7 @@
         <v>1.242</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>14</v>
       </c>
@@ -6374,11 +6387,11 @@
         <v>6</v>
       </c>
       <c r="G135" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>01</v>
       </c>
       <c r="H135" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>ag</v>
       </c>
       <c r="I135" t="s">
@@ -6394,7 +6407,7 @@
         <v>1.0329999999999999</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>14</v>
       </c>
@@ -6414,11 +6427,11 @@
         <v>6</v>
       </c>
       <c r="G136" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>01</v>
       </c>
       <c r="H136" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>ag</v>
       </c>
       <c r="I136" t="s">
@@ -6434,7 +6447,7 @@
         <v>0.73499999999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>14</v>
       </c>
@@ -6454,11 +6467,11 @@
         <v>6</v>
       </c>
       <c r="G137" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>01</v>
       </c>
       <c r="H137" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>ag</v>
       </c>
       <c r="I137" t="s">
@@ -6474,7 +6487,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>14</v>
       </c>
@@ -6494,11 +6507,11 @@
         <v>8</v>
       </c>
       <c r="G138" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>01</v>
       </c>
       <c r="H138" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>a</v>
       </c>
       <c r="I138" t="s">
@@ -6514,7 +6527,7 @@
         <v>1.194</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>14</v>
       </c>
@@ -6534,11 +6547,11 @@
         <v>19</v>
       </c>
       <c r="G139" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>09</v>
       </c>
       <c r="H139" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>a</v>
       </c>
       <c r="I139" t="s">
@@ -6554,7 +6567,7 @@
         <v>1.3109999999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>14</v>
       </c>
@@ -6574,11 +6587,11 @@
         <v>10</v>
       </c>
       <c r="G140" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>06</v>
       </c>
       <c r="H140" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>a</v>
       </c>
       <c r="I140" t="s">
@@ -6594,7 +6607,7 @@
         <v>1.367</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>14</v>
       </c>
@@ -6614,11 +6627,11 @@
         <v>10</v>
       </c>
       <c r="G141" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>06</v>
       </c>
       <c r="H141" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>a</v>
       </c>
       <c r="I141" t="s">
@@ -6634,7 +6647,7 @@
         <v>1.417</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>14</v>
       </c>
@@ -6654,11 +6667,11 @@
         <v>22</v>
       </c>
       <c r="G142" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>08</v>
       </c>
       <c r="H142" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>a</v>
       </c>
       <c r="I142" t="s">
@@ -6674,7 +6687,7 @@
         <v>1.4079999999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>14</v>
       </c>
@@ -6694,11 +6707,11 @@
         <v>22</v>
       </c>
       <c r="G143" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>08</v>
       </c>
       <c r="H143" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>a</v>
       </c>
       <c r="I143" t="s">
@@ -6714,7 +6727,7 @@
         <v>1.3819999999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>14</v>
       </c>
@@ -6734,11 +6747,11 @@
         <v>16</v>
       </c>
       <c r="G144" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>05</v>
       </c>
       <c r="H144" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>a</v>
       </c>
       <c r="I144" t="s">
@@ -6754,7 +6767,7 @@
         <v>1.385</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>14</v>
       </c>
@@ -6774,11 +6787,11 @@
         <v>16</v>
       </c>
       <c r="G145" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>05</v>
       </c>
       <c r="H145" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>a</v>
       </c>
       <c r="I145" t="s">
@@ -6794,7 +6807,7 @@
         <v>1.288</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>14</v>
       </c>
@@ -6814,11 +6827,11 @@
         <v>16</v>
       </c>
       <c r="G146" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>05</v>
       </c>
       <c r="H146" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>a</v>
       </c>
       <c r="I146" t="s">
@@ -6834,7 +6847,7 @@
         <v>1.258</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>14</v>
       </c>
@@ -6854,11 +6867,11 @@
         <v>16</v>
       </c>
       <c r="G147" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>05</v>
       </c>
       <c r="H147" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>a</v>
       </c>
       <c r="I147" t="s">
@@ -6874,7 +6887,7 @@
         <v>1.3620000000000001</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>14</v>
       </c>
@@ -6894,11 +6907,11 @@
         <v>10</v>
       </c>
       <c r="G148" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>06</v>
       </c>
       <c r="H148" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>a</v>
       </c>
       <c r="I148" t="s">
@@ -6914,7 +6927,7 @@
         <v>1.361</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>14</v>
       </c>
@@ -6934,11 +6947,11 @@
         <v>10</v>
       </c>
       <c r="G149" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>06</v>
       </c>
       <c r="H149" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>a</v>
       </c>
       <c r="I149" t="s">
@@ -6954,7 +6967,7 @@
         <v>1.3029999999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>14</v>
       </c>
@@ -6974,11 +6987,11 @@
         <v>19</v>
       </c>
       <c r="G150" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>09</v>
       </c>
       <c r="H150" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>a</v>
       </c>
       <c r="I150" t="s">
@@ -6994,7 +7007,7 @@
         <v>1.264</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>14</v>
       </c>
@@ -7014,11 +7027,11 @@
         <v>10</v>
       </c>
       <c r="G151" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>06</v>
       </c>
       <c r="H151" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>a</v>
       </c>
       <c r="I151" t="s">
@@ -7034,7 +7047,7 @@
         <v>1.2669999999999999</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>14</v>
       </c>
@@ -7054,11 +7067,11 @@
         <v>23</v>
       </c>
       <c r="G152" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>01</v>
       </c>
       <c r="H152" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>b</v>
       </c>
       <c r="I152" t="s">
@@ -7074,7 +7087,7 @@
         <v>1.284</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>14</v>
       </c>
@@ -7094,11 +7107,11 @@
         <v>23</v>
       </c>
       <c r="G153" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>01</v>
       </c>
       <c r="H153" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>b</v>
       </c>
       <c r="I153" t="s">
@@ -7114,7 +7127,7 @@
         <v>1.321</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>14</v>
       </c>
@@ -7134,11 +7147,11 @@
         <v>10</v>
       </c>
       <c r="G154" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>06</v>
       </c>
       <c r="H154" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>a</v>
       </c>
       <c r="I154" t="s">
@@ -7154,7 +7167,7 @@
         <v>1.268</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>14</v>
       </c>
@@ -7174,11 +7187,11 @@
         <v>10</v>
       </c>
       <c r="G155" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>06</v>
       </c>
       <c r="H155" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>a</v>
       </c>
       <c r="I155" t="s">
@@ -7194,7 +7207,7 @@
         <v>1.2929999999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>14</v>
       </c>
@@ -7214,11 +7227,11 @@
         <v>10</v>
       </c>
       <c r="G156" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>06</v>
       </c>
       <c r="H156" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>a</v>
       </c>
       <c r="I156" t="s">
@@ -7234,7 +7247,7 @@
         <v>1.278</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>14</v>
       </c>
@@ -7254,11 +7267,11 @@
         <v>10</v>
       </c>
       <c r="G157" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>06</v>
       </c>
       <c r="H157" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>a</v>
       </c>
       <c r="I157" t="s">
@@ -7274,7 +7287,7 @@
         <v>1.3560000000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>14</v>
       </c>
@@ -7294,11 +7307,11 @@
         <v>14</v>
       </c>
       <c r="G158" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>22</v>
       </c>
       <c r="H158" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>r</v>
       </c>
       <c r="I158" t="s">
@@ -7314,7 +7327,7 @@
         <v>1.218</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>14</v>
       </c>
@@ -7334,11 +7347,11 @@
         <v>15</v>
       </c>
       <c r="G159" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>01</v>
       </c>
       <c r="H159" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>g</v>
       </c>
       <c r="I159" t="s">
@@ -7354,7 +7367,7 @@
         <v>0.216</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>14</v>
       </c>
@@ -7374,11 +7387,11 @@
         <v>15</v>
       </c>
       <c r="G160" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>01</v>
       </c>
       <c r="H160" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>g</v>
       </c>
       <c r="I160" t="s">
@@ -7394,7 +7407,7 @@
         <v>0.24099999999999999</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>14</v>
       </c>
@@ -7414,11 +7427,11 @@
         <v>14</v>
       </c>
       <c r="G161" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>22</v>
       </c>
       <c r="H161" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>r</v>
       </c>
       <c r="I161" t="s">
@@ -7434,7 +7447,7 @@
         <v>1.1850000000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>14</v>
       </c>
@@ -7454,11 +7467,11 @@
         <v>10</v>
       </c>
       <c r="G162" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>06</v>
       </c>
       <c r="H162" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>a</v>
       </c>
       <c r="I162" t="s">
@@ -7474,7 +7487,7 @@
         <v>1.2809999999999999</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>14</v>
       </c>
@@ -7494,11 +7507,11 @@
         <v>10</v>
       </c>
       <c r="G163" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>06</v>
       </c>
       <c r="H163" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>a</v>
       </c>
       <c r="I163" t="s">
@@ -7514,7 +7527,7 @@
         <v>1.3029999999999999</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>14</v>
       </c>
@@ -7534,11 +7547,11 @@
         <v>10</v>
       </c>
       <c r="G164" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>06</v>
       </c>
       <c r="H164" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>a</v>
       </c>
       <c r="I164" t="s">
@@ -7554,7 +7567,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>14</v>
       </c>
@@ -7574,11 +7587,11 @@
         <v>24</v>
       </c>
       <c r="G165" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>06</v>
       </c>
       <c r="H165" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>b</v>
       </c>
       <c r="I165" t="s">
@@ -7594,7 +7607,7 @@
         <v>1.329</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>14</v>
       </c>
@@ -7614,11 +7627,11 @@
         <v>24</v>
       </c>
       <c r="G166" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>06</v>
       </c>
       <c r="H166" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>b</v>
       </c>
       <c r="I166" t="s">
@@ -7634,7 +7647,7 @@
         <v>1.3360000000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>14</v>
       </c>
@@ -7654,11 +7667,11 @@
         <v>25</v>
       </c>
       <c r="G167" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="H167" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>jn</v>
       </c>
       <c r="I167" t="s">
@@ -7674,7 +7687,7 @@
         <v>1.266</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>14</v>
       </c>
@@ -7694,11 +7707,11 @@
         <v>25</v>
       </c>
       <c r="G168" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="H168" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>jn</v>
       </c>
       <c r="I168" t="s">
@@ -7714,7 +7727,7 @@
         <v>1.294</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>14</v>
       </c>
@@ -7734,11 +7747,11 @@
         <v>26</v>
       </c>
       <c r="G169" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>02</v>
       </c>
       <c r="H169" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>b</v>
       </c>
       <c r="I169" t="s">
@@ -7754,7 +7767,7 @@
         <v>1.306</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>14</v>
       </c>
@@ -7774,11 +7787,11 @@
         <v>26</v>
       </c>
       <c r="G170" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>02</v>
       </c>
       <c r="H170" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>b</v>
       </c>
       <c r="I170" t="s">
@@ -7794,7 +7807,7 @@
         <v>1.3220000000000001</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>14</v>
       </c>
@@ -7814,11 +7827,11 @@
         <v>10</v>
       </c>
       <c r="G171" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>06</v>
       </c>
       <c r="H171" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>a</v>
       </c>
       <c r="I171" t="s">
@@ -7834,7 +7847,7 @@
         <v>1.288</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>14</v>
       </c>
@@ -7854,11 +7867,11 @@
         <v>10</v>
       </c>
       <c r="G172" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>06</v>
       </c>
       <c r="H172" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>a</v>
       </c>
       <c r="I172" t="s">
@@ -7874,7 +7887,7 @@
         <v>1.319</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>14</v>
       </c>
@@ -7894,11 +7907,11 @@
         <v>25</v>
       </c>
       <c r="G173" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="H173" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>jn</v>
       </c>
       <c r="I173" t="s">
@@ -7914,7 +7927,7 @@
         <v>1.2549999999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>14</v>
       </c>
@@ -7934,11 +7947,11 @@
         <v>25</v>
       </c>
       <c r="G174" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="H174" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>jn</v>
       </c>
       <c r="I174" t="s">
@@ -7954,7 +7967,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>14</v>
       </c>
@@ -7974,11 +7987,11 @@
         <v>10</v>
       </c>
       <c r="G175" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>06</v>
       </c>
       <c r="H175" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>a</v>
       </c>
       <c r="I175" t="s">
@@ -7994,7 +8007,7 @@
         <v>1.3280000000000001</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>14</v>
       </c>
@@ -8014,11 +8027,11 @@
         <v>10</v>
       </c>
       <c r="G176" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>06</v>
       </c>
       <c r="H176" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>a</v>
       </c>
       <c r="I176" t="s">
@@ -8034,7 +8047,7 @@
         <v>1.3069999999999999</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>14</v>
       </c>
@@ -8054,11 +8067,11 @@
         <v>25</v>
       </c>
       <c r="G177" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="H177" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>jn</v>
       </c>
       <c r="I177" t="s">
@@ -8074,7 +8087,7 @@
         <v>1.1859999999999999</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>14</v>
       </c>
@@ -8094,11 +8107,11 @@
         <v>25</v>
       </c>
       <c r="G178" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="H178" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>jn</v>
       </c>
       <c r="I178" t="s">
@@ -8114,7 +8127,7 @@
         <v>1.1839999999999999</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>14</v>
       </c>
@@ -8134,11 +8147,11 @@
         <v>10</v>
       </c>
       <c r="G179" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>06</v>
       </c>
       <c r="H179" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>a</v>
       </c>
       <c r="I179" t="s">
@@ -8154,7 +8167,7 @@
         <v>1.2849999999999999</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>14</v>
       </c>
@@ -8174,11 +8187,11 @@
         <v>10</v>
       </c>
       <c r="G180" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>06</v>
       </c>
       <c r="H180" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>a</v>
       </c>
       <c r="I180" t="s">
@@ -8194,7 +8207,7 @@
         <v>1.3340000000000001</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>14</v>
       </c>
@@ -8214,11 +8227,11 @@
         <v>10</v>
       </c>
       <c r="G181" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>06</v>
       </c>
       <c r="H181" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>a</v>
       </c>
       <c r="I181" t="s">
@@ -8234,7 +8247,7 @@
         <v>1.272</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>14</v>
       </c>
@@ -8254,11 +8267,11 @@
         <v>6</v>
       </c>
       <c r="G182" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>01</v>
       </c>
       <c r="H182" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>ag</v>
       </c>
       <c r="I182" t="s">
@@ -8274,7 +8287,7 @@
         <v>0.754</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>14</v>
       </c>
@@ -8294,11 +8307,11 @@
         <v>6</v>
       </c>
       <c r="G183" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>01</v>
       </c>
       <c r="H183" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>ag</v>
       </c>
       <c r="I183" t="s">
@@ -8314,7 +8327,7 @@
         <v>1.0549999999999999</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>14</v>
       </c>
@@ -8334,11 +8347,11 @@
         <v>23</v>
       </c>
       <c r="G184" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>01</v>
       </c>
       <c r="H184" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>b</v>
       </c>
       <c r="I184" t="s">
@@ -8354,7 +8367,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>14</v>
       </c>
@@ -8374,11 +8387,11 @@
         <v>14</v>
       </c>
       <c r="G185" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>22</v>
       </c>
       <c r="H185" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>r</v>
       </c>
       <c r="I185" t="s">
@@ -8394,7 +8407,7 @@
         <v>1.1619999999999999</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>14</v>
       </c>
@@ -8414,11 +8427,11 @@
         <v>11</v>
       </c>
       <c r="G186" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>02</v>
       </c>
       <c r="H186" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>a</v>
       </c>
       <c r="I186" t="s">
@@ -8434,7 +8447,7 @@
         <v>1.2330000000000001</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>14</v>
       </c>
@@ -8454,11 +8467,11 @@
         <v>10</v>
       </c>
       <c r="G187" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>06</v>
       </c>
       <c r="H187" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>a</v>
       </c>
       <c r="I187" t="s">
@@ -8474,7 +8487,7 @@
         <v>1.2789999999999999</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>14</v>
       </c>
@@ -8494,11 +8507,11 @@
         <v>10</v>
       </c>
       <c r="G188" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>06</v>
       </c>
       <c r="H188" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>a</v>
       </c>
       <c r="I188" t="s">
@@ -8514,7 +8527,7 @@
         <v>1.351</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>14</v>
       </c>
@@ -8534,11 +8547,11 @@
         <v>23</v>
       </c>
       <c r="G189" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>01</v>
       </c>
       <c r="H189" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>b</v>
       </c>
       <c r="I189" t="s">
@@ -8554,7 +8567,7 @@
         <v>1.2470000000000001</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>14</v>
       </c>
@@ -8574,11 +8587,11 @@
         <v>23</v>
       </c>
       <c r="G190" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>01</v>
       </c>
       <c r="H190" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>b</v>
       </c>
       <c r="I190" t="s">
@@ -8594,7 +8607,7 @@
         <v>1.3260000000000001</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>14</v>
       </c>
@@ -8614,11 +8627,11 @@
         <v>27</v>
       </c>
       <c r="G191" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="H191" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>jn</v>
       </c>
       <c r="I191" t="s">
@@ -8634,7 +8647,7 @@
         <v>1.3380000000000001</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>14</v>
       </c>
@@ -8654,11 +8667,11 @@
         <v>10</v>
       </c>
       <c r="G192" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>06</v>
       </c>
       <c r="H192" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>a</v>
       </c>
       <c r="I192" t="s">
@@ -8674,7 +8687,7 @@
         <v>1.3879999999999999</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>14</v>
       </c>
@@ -8694,11 +8707,11 @@
         <v>28</v>
       </c>
       <c r="G193" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="H193" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>a</v>
       </c>
       <c r="I193" t="s">
@@ -8714,7 +8727,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>14</v>
       </c>
@@ -8734,11 +8747,11 @@
         <v>28</v>
       </c>
       <c r="G194" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="H194" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>a</v>
       </c>
       <c r="I194" t="s">
@@ -8754,7 +8767,7 @@
         <v>1.387</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>14</v>
       </c>
@@ -8774,11 +8787,11 @@
         <v>24</v>
       </c>
       <c r="G195" t="str">
-        <f>LEFT(F195,2)</f>
+        <f t="shared" ref="G195:G227" si="11">LEFT(F195,2)</f>
         <v>06</v>
       </c>
       <c r="H195" t="str">
-        <f>RIGHT(F195,LEN(F195)-2)</f>
+        <f t="shared" ref="H195:H227" si="12">RIGHT(F195,LEN(F195)-2)</f>
         <v>b</v>
       </c>
       <c r="I195" t="s">
@@ -8794,7 +8807,7 @@
         <v>1.4159999999999999</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>14</v>
       </c>
@@ -8814,11 +8827,11 @@
         <v>28</v>
       </c>
       <c r="G196" t="str">
-        <f>LEFT(F196,2)</f>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="H196" t="str">
-        <f>RIGHT(F196,LEN(F196)-2)</f>
+        <f t="shared" si="12"/>
         <v>a</v>
       </c>
       <c r="I196" t="s">
@@ -8834,7 +8847,7 @@
         <v>1.413</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>14</v>
       </c>
@@ -8854,11 +8867,11 @@
         <v>28</v>
       </c>
       <c r="G197" t="str">
-        <f>LEFT(F197,2)</f>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="H197" t="str">
-        <f>RIGHT(F197,LEN(F197)-2)</f>
+        <f t="shared" si="12"/>
         <v>a</v>
       </c>
       <c r="I197" t="s">
@@ -8874,7 +8887,7 @@
         <v>1.393</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>14</v>
       </c>
@@ -8894,11 +8907,11 @@
         <v>28</v>
       </c>
       <c r="G198" t="str">
-        <f>LEFT(F198,2)</f>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="H198" t="str">
-        <f>RIGHT(F198,LEN(F198)-2)</f>
+        <f t="shared" si="12"/>
         <v>a</v>
       </c>
       <c r="I198" t="s">
@@ -8914,7 +8927,7 @@
         <v>1.379</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>14</v>
       </c>
@@ -8934,11 +8947,11 @@
         <v>10</v>
       </c>
       <c r="G199" t="str">
-        <f>LEFT(F199,2)</f>
+        <f t="shared" si="11"/>
         <v>06</v>
       </c>
       <c r="H199" t="str">
-        <f>RIGHT(F199,LEN(F199)-2)</f>
+        <f t="shared" si="12"/>
         <v>a</v>
       </c>
       <c r="I199" t="s">
@@ -8954,7 +8967,7 @@
         <v>1.417</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>14</v>
       </c>
@@ -8974,11 +8987,11 @@
         <v>28</v>
       </c>
       <c r="G200" t="str">
-        <f>LEFT(F200,2)</f>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="H200" t="str">
-        <f>RIGHT(F200,LEN(F200)-2)</f>
+        <f t="shared" si="12"/>
         <v>a</v>
       </c>
       <c r="I200" t="s">
@@ -8994,7 +9007,7 @@
         <v>1.4239999999999999</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>14</v>
       </c>
@@ -9014,11 +9027,11 @@
         <v>28</v>
       </c>
       <c r="G201" t="str">
-        <f>LEFT(F201,2)</f>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="H201" t="str">
-        <f>RIGHT(F201,LEN(F201)-2)</f>
+        <f t="shared" si="12"/>
         <v>a</v>
       </c>
       <c r="I201" t="s">
@@ -9034,7 +9047,7 @@
         <v>1.343</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>14</v>
       </c>
@@ -9054,11 +9067,11 @@
         <v>11</v>
       </c>
       <c r="G202" t="str">
-        <f>LEFT(F202,2)</f>
+        <f t="shared" si="11"/>
         <v>02</v>
       </c>
       <c r="H202" t="str">
-        <f>RIGHT(F202,LEN(F202)-2)</f>
+        <f t="shared" si="12"/>
         <v>a</v>
       </c>
       <c r="I202" t="s">
@@ -9074,7 +9087,7 @@
         <v>1.4019999999999999</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>14</v>
       </c>
@@ -9094,11 +9107,11 @@
         <v>10</v>
       </c>
       <c r="G203" t="str">
-        <f>LEFT(F203,2)</f>
+        <f t="shared" si="11"/>
         <v>06</v>
       </c>
       <c r="H203" t="str">
-        <f>RIGHT(F203,LEN(F203)-2)</f>
+        <f t="shared" si="12"/>
         <v>a</v>
       </c>
       <c r="I203" t="s">
@@ -9114,7 +9127,7 @@
         <v>1.4279999999999999</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>14</v>
       </c>
@@ -9134,11 +9147,11 @@
         <v>10</v>
       </c>
       <c r="G204" t="str">
-        <f>LEFT(F204,2)</f>
+        <f t="shared" si="11"/>
         <v>06</v>
       </c>
       <c r="H204" t="str">
-        <f>RIGHT(F204,LEN(F204)-2)</f>
+        <f t="shared" si="12"/>
         <v>a</v>
       </c>
       <c r="I204" t="s">
@@ -9154,7 +9167,7 @@
         <v>1.3109999999999999</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>14</v>
       </c>
@@ -9174,11 +9187,11 @@
         <v>11</v>
       </c>
       <c r="G205" t="str">
-        <f>LEFT(F205,2)</f>
+        <f t="shared" si="11"/>
         <v>02</v>
       </c>
       <c r="H205" t="str">
-        <f>RIGHT(F205,LEN(F205)-2)</f>
+        <f t="shared" si="12"/>
         <v>a</v>
       </c>
       <c r="I205" t="s">
@@ -9194,7 +9207,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>14</v>
       </c>
@@ -9214,11 +9227,11 @@
         <v>8</v>
       </c>
       <c r="G206" t="str">
-        <f>LEFT(F206,2)</f>
+        <f t="shared" si="11"/>
         <v>01</v>
       </c>
       <c r="H206" t="str">
-        <f>RIGHT(F206,LEN(F206)-2)</f>
+        <f t="shared" si="12"/>
         <v>a</v>
       </c>
       <c r="I206" t="s">
@@ -9234,7 +9247,7 @@
         <v>1.171</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>14</v>
       </c>
@@ -9254,11 +9267,11 @@
         <v>8</v>
       </c>
       <c r="G207" t="str">
-        <f>LEFT(F207,2)</f>
+        <f t="shared" si="11"/>
         <v>01</v>
       </c>
       <c r="H207" t="str">
-        <f>RIGHT(F207,LEN(F207)-2)</f>
+        <f t="shared" si="12"/>
         <v>a</v>
       </c>
       <c r="I207" t="s">
@@ -9274,7 +9287,7 @@
         <v>1.163</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>14</v>
       </c>
@@ -9294,11 +9307,11 @@
         <v>6</v>
       </c>
       <c r="G208" t="str">
-        <f>LEFT(F208,2)</f>
+        <f t="shared" si="11"/>
         <v>01</v>
       </c>
       <c r="H208" t="str">
-        <f>RIGHT(F208,LEN(F208)-2)</f>
+        <f t="shared" si="12"/>
         <v>ag</v>
       </c>
       <c r="I208" t="s">
@@ -9314,7 +9327,7 @@
         <v>0.77800000000000002</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>14</v>
       </c>
@@ -9334,11 +9347,11 @@
         <v>6</v>
       </c>
       <c r="G209" t="str">
-        <f>LEFT(F209,2)</f>
+        <f t="shared" si="11"/>
         <v>01</v>
       </c>
       <c r="H209" t="str">
-        <f>RIGHT(F209,LEN(F209)-2)</f>
+        <f t="shared" si="12"/>
         <v>ag</v>
       </c>
       <c r="I209" t="s">
@@ -9354,7 +9367,7 @@
         <v>0.88900000000000001</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>14</v>
       </c>
@@ -9374,11 +9387,11 @@
         <v>6</v>
       </c>
       <c r="G210" t="str">
-        <f>LEFT(F210,2)</f>
+        <f t="shared" si="11"/>
         <v>01</v>
       </c>
       <c r="H210" t="str">
-        <f>RIGHT(F210,LEN(F210)-2)</f>
+        <f t="shared" si="12"/>
         <v>ag</v>
       </c>
       <c r="I210" t="s">
@@ -9394,7 +9407,7 @@
         <v>0.79600000000000004</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>14</v>
       </c>
@@ -9414,11 +9427,11 @@
         <v>11</v>
       </c>
       <c r="G211" t="str">
-        <f>LEFT(F211,2)</f>
+        <f t="shared" si="11"/>
         <v>02</v>
       </c>
       <c r="H211" t="str">
-        <f>RIGHT(F211,LEN(F211)-2)</f>
+        <f t="shared" si="12"/>
         <v>a</v>
       </c>
       <c r="I211" t="s">
@@ -9434,7 +9447,7 @@
         <v>1.216</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>14</v>
       </c>
@@ -9454,11 +9467,11 @@
         <v>11</v>
       </c>
       <c r="G212" t="str">
-        <f>LEFT(F212,2)</f>
+        <f t="shared" si="11"/>
         <v>02</v>
       </c>
       <c r="H212" t="str">
-        <f>RIGHT(F212,LEN(F212)-2)</f>
+        <f t="shared" si="12"/>
         <v>a</v>
       </c>
       <c r="I212" t="s">
@@ -9474,7 +9487,7 @@
         <v>1.2010000000000001</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>14</v>
       </c>
@@ -9494,11 +9507,11 @@
         <v>11</v>
       </c>
       <c r="G213" t="str">
-        <f>LEFT(F213,2)</f>
+        <f t="shared" si="11"/>
         <v>02</v>
       </c>
       <c r="H213" t="str">
-        <f>RIGHT(F213,LEN(F213)-2)</f>
+        <f t="shared" si="12"/>
         <v>a</v>
       </c>
       <c r="I213" t="s">
@@ -9514,7 +9527,7 @@
         <v>1.1379999999999999</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>14</v>
       </c>
@@ -9534,11 +9547,11 @@
         <v>18</v>
       </c>
       <c r="G214" t="str">
-        <f>LEFT(F214,2)</f>
+        <f t="shared" si="11"/>
         <v>04</v>
       </c>
       <c r="H214" t="str">
-        <f>RIGHT(F214,LEN(F214)-2)</f>
+        <f t="shared" si="12"/>
         <v>a</v>
       </c>
       <c r="I214" t="s">
@@ -9554,7 +9567,7 @@
         <v>1.3340000000000001</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>14</v>
       </c>
@@ -9574,11 +9587,11 @@
         <v>18</v>
       </c>
       <c r="G215" t="str">
-        <f>LEFT(F215,2)</f>
+        <f t="shared" si="11"/>
         <v>04</v>
       </c>
       <c r="H215" t="str">
-        <f>RIGHT(F215,LEN(F215)-2)</f>
+        <f t="shared" si="12"/>
         <v>a</v>
       </c>
       <c r="I215" t="s">
@@ -9594,7 +9607,7 @@
         <v>1.3939999999999999</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>14</v>
       </c>
@@ -9614,11 +9627,11 @@
         <v>10</v>
       </c>
       <c r="G216" t="str">
-        <f>LEFT(F216,2)</f>
+        <f t="shared" si="11"/>
         <v>06</v>
       </c>
       <c r="H216" t="str">
-        <f>RIGHT(F216,LEN(F216)-2)</f>
+        <f t="shared" si="12"/>
         <v>a</v>
       </c>
       <c r="I216" t="s">
@@ -9634,7 +9647,7 @@
         <v>1.423</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>14</v>
       </c>
@@ -9654,11 +9667,11 @@
         <v>10</v>
       </c>
       <c r="G217" t="str">
-        <f>LEFT(F217,2)</f>
+        <f t="shared" si="11"/>
         <v>06</v>
       </c>
       <c r="H217" t="str">
-        <f>RIGHT(F217,LEN(F217)-2)</f>
+        <f t="shared" si="12"/>
         <v>a</v>
       </c>
       <c r="I217" t="s">
@@ -9674,7 +9687,7 @@
         <v>1.4870000000000001</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>14</v>
       </c>
@@ -9694,11 +9707,11 @@
         <v>17</v>
       </c>
       <c r="G218" t="str">
-        <f>LEFT(F218,2)</f>
+        <f t="shared" si="11"/>
         <v>03</v>
       </c>
       <c r="H218" t="str">
-        <f>RIGHT(F218,LEN(F218)-2)</f>
+        <f t="shared" si="12"/>
         <v>a</v>
       </c>
       <c r="I218" t="s">
@@ -9714,7 +9727,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>14</v>
       </c>
@@ -9734,11 +9747,11 @@
         <v>17</v>
       </c>
       <c r="G219" t="str">
-        <f>LEFT(F219,2)</f>
+        <f t="shared" si="11"/>
         <v>03</v>
       </c>
       <c r="H219" t="str">
-        <f>RIGHT(F219,LEN(F219)-2)</f>
+        <f t="shared" si="12"/>
         <v>a</v>
       </c>
       <c r="I219" t="s">
@@ -9754,7 +9767,7 @@
         <v>1.4259999999999999</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>14</v>
       </c>
@@ -9774,11 +9787,11 @@
         <v>18</v>
       </c>
       <c r="G220" t="str">
-        <f>LEFT(F220,2)</f>
+        <f t="shared" si="11"/>
         <v>04</v>
       </c>
       <c r="H220" t="str">
-        <f>RIGHT(F220,LEN(F220)-2)</f>
+        <f t="shared" si="12"/>
         <v>a</v>
       </c>
       <c r="I220" t="s">
@@ -9794,7 +9807,7 @@
         <v>1.474</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>14</v>
       </c>
@@ -9814,11 +9827,11 @@
         <v>17</v>
       </c>
       <c r="G221" t="str">
-        <f>LEFT(F221,2)</f>
+        <f t="shared" si="11"/>
         <v>03</v>
       </c>
       <c r="H221" t="str">
-        <f>RIGHT(F221,LEN(F221)-2)</f>
+        <f t="shared" si="12"/>
         <v>a</v>
       </c>
       <c r="I221" t="s">
@@ -9834,7 +9847,7 @@
         <v>1.4279999999999999</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>14</v>
       </c>
@@ -9854,11 +9867,11 @@
         <v>17</v>
       </c>
       <c r="G222" t="str">
-        <f>LEFT(F222,2)</f>
+        <f t="shared" si="11"/>
         <v>03</v>
       </c>
       <c r="H222" t="str">
-        <f>RIGHT(F222,LEN(F222)-2)</f>
+        <f t="shared" si="12"/>
         <v>a</v>
       </c>
       <c r="I222" t="s">
@@ -9874,7 +9887,7 @@
         <v>1.4139999999999999</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>14</v>
       </c>
@@ -9894,11 +9907,11 @@
         <v>18</v>
       </c>
       <c r="G223" t="str">
-        <f>LEFT(F223,2)</f>
+        <f t="shared" si="11"/>
         <v>04</v>
       </c>
       <c r="H223" t="str">
-        <f>RIGHT(F223,LEN(F223)-2)</f>
+        <f t="shared" si="12"/>
         <v>a</v>
       </c>
       <c r="I223" t="s">
@@ -9914,7 +9927,7 @@
         <v>1.4390000000000001</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>14</v>
       </c>
@@ -9934,11 +9947,11 @@
         <v>18</v>
       </c>
       <c r="G224" t="str">
-        <f>LEFT(F224,2)</f>
+        <f t="shared" si="11"/>
         <v>04</v>
       </c>
       <c r="H224" t="str">
-        <f>RIGHT(F224,LEN(F224)-2)</f>
+        <f t="shared" si="12"/>
         <v>a</v>
       </c>
       <c r="I224" t="s">
@@ -9954,7 +9967,7 @@
         <v>1.456</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>14</v>
       </c>
@@ -9974,11 +9987,11 @@
         <v>17</v>
       </c>
       <c r="G225" t="str">
-        <f>LEFT(F225,2)</f>
+        <f t="shared" si="11"/>
         <v>03</v>
       </c>
       <c r="H225" t="str">
-        <f>RIGHT(F225,LEN(F225)-2)</f>
+        <f t="shared" si="12"/>
         <v>a</v>
       </c>
       <c r="I225" t="s">
@@ -9994,7 +10007,7 @@
         <v>1.3919999999999999</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>14</v>
       </c>
@@ -10014,11 +10027,11 @@
         <v>17</v>
       </c>
       <c r="G226" t="str">
-        <f>LEFT(F226,2)</f>
+        <f t="shared" si="11"/>
         <v>03</v>
       </c>
       <c r="H226" t="str">
-        <f>RIGHT(F226,LEN(F226)-2)</f>
+        <f t="shared" si="12"/>
         <v>a</v>
       </c>
       <c r="I226" t="s">
@@ -10034,7 +10047,7 @@
         <v>1.3839999999999999</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>14</v>
       </c>
@@ -10054,11 +10067,11 @@
         <v>18</v>
       </c>
       <c r="G227" t="str">
-        <f>LEFT(F227,2)</f>
+        <f t="shared" si="11"/>
         <v>04</v>
       </c>
       <c r="H227" t="str">
-        <f>RIGHT(F227,LEN(F227)-2)</f>
+        <f t="shared" si="12"/>
         <v>a</v>
       </c>
       <c r="I227" t="s">
